--- a/doc-project/R2019b jarext worksheet.xlsx
+++ b/doc-project/R2019b jarext worksheet.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janke/local/repos/matlab-jump/doc-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6EA75F-D578-0142-947E-ADDB4A23C6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F51BE87-9480-4741-A068-034413926FE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26820" windowHeight="24940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33820" windowHeight="25560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="jarext" sheetId="1" r:id="rId1"/>
-    <sheet name="Comments" sheetId="2" r:id="rId2"/>
+    <sheet name="R2019b" sheetId="1" r:id="rId1"/>
+    <sheet name="ANTLRs" sheetId="3" r:id="rId2"/>
+    <sheet name="Comments" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="550">
   <si>
     <t>Title</t>
   </si>
@@ -1326,9 +1337,6 @@
 </t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>LicenseInfoInJump</t>
   </si>
   <si>
@@ -1350,20 +1358,338 @@
     <t>Differs from R2016b!</t>
   </si>
   <si>
-    <t>Can't find on Maven</t>
-  </si>
-  <si>
     <t>Trilead is on Maven, but I don't know what version this is.</t>
   </si>
   <si>
     <t>TODO: find out what version this is</t>
+  </si>
+  <si>
+    <t>R2016b</t>
+  </si>
+  <si>
+    <t>R2019b</t>
+  </si>
+  <si>
+    <t>R2020a</t>
+  </si>
+  <si>
+    <t>Matlab Version</t>
+  </si>
+  <si>
+    <t>SHA256</t>
+  </si>
+  <si>
+    <t>SHA1</t>
+  </si>
+  <si>
+    <t>c14f2678b9f4a6b559dce26726431c9343b062dd</t>
+  </si>
+  <si>
+    <t>648c654a3b33513e3d5cd8bd6d3035fae50c25ae8551dcb4876d73ea01ae2f2d</t>
+  </si>
+  <si>
+    <t>edbd337762095f24d8573a866a3aa621215ab4cec88e866ffc4a9351d4fca0c1</t>
+  </si>
+  <si>
+    <t>Apache 2.0</t>
+  </si>
+  <si>
+    <t>Can't find on Maven. Available at https://bitbucket.org/almworks/sqlite4java/downloads/. Adding to janklab-opp.</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Coverage ratio</t>
+  </si>
+  <si>
+    <t>Not Open Source</t>
+  </si>
+  <si>
+    <t>86430ca8891b480ff2956abe4fa2b3d93ebe697d479e7b1bde7da4fb590a1879</t>
+  </si>
+  <si>
+    <t>I can't tell what version this is. Doesn't match anything I found at http://rxtx.qbang.org/pub/rxtx/</t>
+  </si>
+  <si>
+    <t>14ac7b8e3c024b5b9d4cc1888c5410859d3d2b56a563eef66bfadb59abead252</t>
+  </si>
+  <si>
+    <t>dbd887532bf6057421085bfcfaae1f893bb775f450eea1c96623d44bfee1e2eb</t>
+  </si>
+  <si>
+    <t>8091ec156bf2cdfcb34791a32331c67b82b95db5d0421bdb2f5f8797447c3aec</t>
+  </si>
+  <si>
+    <t>72b7d6c01abf8be2ec1357b341524d68b7809514c9b8ec009bb323679f4a2f3f</t>
+  </si>
+  <si>
+    <t>e1dd875c0572353f28ca569c379012e7611f8ff7246e8c9f050a6e87a7608bc3</t>
+  </si>
+  <si>
+    <t>e0ce494df8050666b1bfc65117b2048103509c10679211968388d100b5d24a7c</t>
+  </si>
+  <si>
+    <t>70c5596e703c9bfb0f228f3f852e110189d5b2e14604cb47ed7725ce44d60494</t>
+  </si>
+  <si>
+    <t>cc29486aba6a229e0d250f5f0ef26f7e6946b8d89f2af482d0351868b8c6f8ff</t>
+  </si>
+  <si>
+    <t>5fc944c10ee87ec9c0b96ec52e04447ca3c2bec9c86fc242e862ca5e0deddfa6</t>
+  </si>
+  <si>
+    <t>a9b26c0d8766fe7437e69ecf0c7afe9ff337dc1084e755a442e544402a328baa</t>
+  </si>
+  <si>
+    <t>953b1a33be99cbf94a7cee9539a5b76523d16a26d5772c4c6555489018c5b8c8</t>
+  </si>
+  <si>
+    <t>1ebd08431710a8db41abe677c270c82ed9173437d4460eb153dd3e0c0a097a50</t>
+  </si>
+  <si>
+    <t>2db6b523daa35f5190baafeacd413b38f1cf632ec1d6469ab611d692e4edec6f</t>
+  </si>
+  <si>
+    <t>1934ae9f036516f2ce472a205716b4cc45ed4ca142e450e3abb1113c5e367204</t>
+  </si>
+  <si>
+    <t>b7e026027be2b171b3ab0e8e81e8c87b70be58475793d07112dd7ed14ad3c629</t>
+  </si>
+  <si>
+    <t>fe0c6cb98ab2a03bf60ec832d194b9da591284e660f7ac7fbc51406ee1d99c92</t>
+  </si>
+  <si>
+    <t>18aed065f4c41dab075eed0f58701c2434e2ebc2d50af90e518efd824e786378</t>
+  </si>
+  <si>
+    <t>c2e8007512d76f1c2b95ece28a585fd5c471262ff029bfb930bf32a528b92a15</t>
+  </si>
+  <si>
+    <t>d1a8e5ff1c3e85db575b5f08ac3527c2ce97c3527af78de3d2f7d5bf4f0b6b31</t>
+  </si>
+  <si>
+    <t>14fbf0c8c7c76745efc7b3834f9b72ded76877cc5a6b775a2b81af663f82424a</t>
+  </si>
+  <si>
+    <t>94bffdb131a0aacef08377f16e355618e2c30c957e50dbec6f041e0a886e3dd8</t>
+  </si>
+  <si>
+    <t>d04183df3a51754a5a65771211921dc8b5faca61157802d7a10b0c72cf7583b0</t>
+  </si>
+  <si>
+    <t>6374bf649f68633cb62c8ce2dfa759f1b9ceefb46e034d33b11adc24f1c8d5b7</t>
+  </si>
+  <si>
+    <t>cfe3eb8c5922424b936943b9408dd7934b0cd3d909efcf824571de9d4a0f91b8</t>
+  </si>
+  <si>
+    <t>I found a non-snapshot version of 2.1.1 under a different groupId on Maven Central.</t>
+  </si>
+  <si>
+    <t>Bluecove is dead: the 2.1.1 snapshot code needs Java 1.4. I'm not going to bother packaging at this point.</t>
+  </si>
+  <si>
+    <t>9263d928ae157f489f40bda22402f4f391769b65c43b814c0ccba79b29865b5b</t>
+  </si>
+  <si>
+    <t>94c117b9e23771612d2b0a0ee0441b40e15e104dd469ee8c3c5dd2b9a023e549</t>
+  </si>
+  <si>
+    <t>0c4296a8b33347db1e2c56a03e6f32b3a7b77151eee1b9b1d8057e498c0cda2b</t>
+  </si>
+  <si>
+    <t>8cde5c7e302ca1d222faf110de7e0fa8a1c49d5ff818cf74ba9b833f35b32c3e</t>
+  </si>
+  <si>
+    <t>cf1305fd332e3f10adf9865250b7fa5a86c8cc06c0950e38f6f47c70a48b29a3</t>
+  </si>
+  <si>
+    <t>4a5475d4db784b86be6133bd2d645b0234755b0ee8b0968e1c07d6228de10cc9</t>
+  </si>
+  <si>
+    <t>8479b4e35b72cf39c4b303544829408adf15337727434d0259c67ab18ea38de6</t>
+  </si>
+  <si>
+    <t>6ffcaf2fed30bc681f554cc2d859f6cb296f00541777482c407221a3861e39db</t>
+  </si>
+  <si>
+    <t>a28150bc9623cf18eb32ea247f091fd659f39ecece46df5634ce59748ecfe19b</t>
+  </si>
+  <si>
+    <t>0a085190310e6104bfe46e60c66c2b42fb338ea21b8a618836d79d95159cd404</t>
+  </si>
+  <si>
+    <t>No idea what this is!</t>
+  </si>
+  <si>
+    <t>I'm using the non-SNAPSHOT 2.4 version, selected manually</t>
+  </si>
+  <si>
+    <t>org.apache.xmlgraphics</t>
+  </si>
+  <si>
+    <t>fop-pdf-images</t>
+  </si>
+  <si>
+    <t>I'm just guessing at the version here, assuming it matches the fop-pdf-images one. Unlikely to find an actual match for the SHA since the other one was based on a SNAPSHOT.</t>
+  </si>
+  <si>
+    <t>e2cfda1352ff7c4158dc54901cd9eba1e11fa195b7a1e3f13fa7a6e94f3fcb25</t>
+  </si>
+  <si>
+    <t>I suspect this is Batik 1.12 because other included libs have that as a dependency in Maven</t>
+  </si>
+  <si>
+    <t>Batik 1.12 is being picked up as an indirect dependency of the other libraries.</t>
+  </si>
+  <si>
+    <t>1458dff542035432815d7ad96aa577c186eb793c5e4d6661f7e41fd7979ed680</t>
+  </si>
+  <si>
+    <t>Foxtrot 1.3 and later are on Maven, but no matches. This might be an earlier one. Hard to find out what, though, because there are no published JARs to compare SHAs against.</t>
+  </si>
+  <si>
+    <t>Ice downloads available at https://zeroc.com/downloads/ice</t>
+  </si>
+  <si>
+    <t>1993192b04777b7e60a161465ffaf191c3a9756ad6564d9db2951726f2f5de59</t>
+  </si>
+  <si>
+    <t>fffc5d1ce5d34a28b4cc166a2f13ceceb983ca21c715562ed42f8500e80101f9</t>
+  </si>
+  <si>
+    <t>eb51b51a7af25be44cb492ac6802824517e13603213c93652f94f97e7f3b4910</t>
+  </si>
+  <si>
+    <t>adee6c729fd53339eaeb8c26d56793460c1a9cdfe7f728b61e18c0b51924fe9b</t>
+  </si>
+  <si>
+    <t>9f8fe69e5eaafef4d2be0363c5418de06155fd52b10e1f72347ffa0568702e93</t>
+  </si>
+  <si>
+    <t>47ca653353d9ee032f3dc0b233a27b77a552be0c73c109868f99b5c92bd2200d</t>
+  </si>
+  <si>
+    <t>95ab53cbbd0103bca07b67c827877b106a558bf6dfde915df5bb43834289cb34</t>
+  </si>
+  <si>
+    <t>fcae96f1b32ea265f8bf538109bf377ff998d114847093bf6938488551959b37</t>
+  </si>
+  <si>
+    <t>b9882e74ef5f086a85a9801a8c2dc7cc87c256dabff094178178236dd52ac9e7</t>
+  </si>
+  <si>
+    <t>8de8d1a8d5db9f22d1e3a654eac4b54e49889a6362771824244ef3a6a4456491</t>
+  </si>
+  <si>
+    <t>But none of those downloads have an Ice.jar with a matching SHA.</t>
+  </si>
+  <si>
+    <t>And I have no idea what the ib6*.jar files are.</t>
+  </si>
+  <si>
+    <t>The Java Access Bridge for screen reader support</t>
+  </si>
+  <si>
+    <t>Java Chromium Embedded Framework</t>
+  </si>
+  <si>
+    <t>These versions of JGoodies things are so old that they're no longer out on the web. And certainly not in Maven Central.</t>
+  </si>
+  <si>
+    <t>org.jogamp.jogl</t>
+  </si>
+  <si>
+    <t>jogl</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>Matlab is using an RC; I'm just pulling in the real release.</t>
+  </si>
+  <si>
+    <t>ef01316ee08bc02f393f345ff10e58907f49c9f324f3420c03e71a58ffc4013f</t>
+  </si>
+  <si>
+    <t>0.1.54</t>
+  </si>
+  <si>
+    <t>I found the version by manually matching SHAs against the downloads at https://sourceforge.net/projects/jsch/files/jsch.jar/</t>
+  </si>
+  <si>
+    <t>com.jcraft</t>
+  </si>
+  <si>
+    <t>jsch</t>
+  </si>
+  <si>
+    <t>BSD 3-Clause</t>
+  </si>
+  <si>
+    <t>dc05db82f7865d3c7e916f420e61bbd33f203f07483e885d5e176569a8f9e024</t>
+  </si>
+  <si>
+    <t>b1d792fcaac5ed8197fab734d606f0f54e4926f4dae9ad38fb423d23f31786ab</t>
+  </si>
+  <si>
+    <t>0a2a40385f15b7c7ddcbc5bf3bc16e5942bbaf870bfeaa43b9e5a560fdc89ef7</t>
+  </si>
+  <si>
+    <t>1cc6d702b57d00929558c267c52a4b6565a5da6ba6cc0c38f196eded94fb2ca2</t>
+  </si>
+  <si>
+    <t>908fde093897273bd9534619cfbd05e1ad9418433ffdff7c0590d17be70d167a</t>
+  </si>
+  <si>
+    <t>d5f385d77dea364ba31e72473cd4d2be102b37ab374d1c5f0bcba0a08c881695</t>
+  </si>
+  <si>
+    <t>b1ba97a3ae49b73dc9789f5d021109adf4fa1aa7e591beaf5d4d4804ee9c2a2f</t>
+  </si>
+  <si>
+    <t>2.0.1</t>
+  </si>
+  <si>
+    <t>I found the version by manually matching SHAs against the downloads from https://sourceforge.net/projects/jung/files/jung/</t>
+  </si>
+  <si>
+    <t>net.sf.jung</t>
+  </si>
+  <si>
+    <t>jung-api</t>
+  </si>
+  <si>
+    <t>jung-graph-impl</t>
+  </si>
+  <si>
+    <t>jung-visualization</t>
+  </si>
+  <si>
+    <t>jung-algorithms</t>
+  </si>
+  <si>
+    <t>jung-io</t>
+  </si>
+  <si>
+    <t>jung-jai</t>
+  </si>
+  <si>
+    <t>jung-3d</t>
+  </si>
+  <si>
+    <t>BSD license, per http://jung.sourceforge.net/faq.html#license</t>
+  </si>
+  <si>
+    <t>BSD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1395,6 +1721,30 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1416,7 +1766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1431,6 +1781,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1650,13 +2007,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K192"/>
+  <dimension ref="A1:L194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I192" sqref="I192"/>
+      <selection pane="bottomRight" activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1666,13 +2023,14 @@
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="27.83203125" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="28.83203125" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1689,25 +2047,28 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="5"/>
@@ -1715,11 +2076,17 @@
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="5" t="s">
+        <v>457</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I2" s="3"/>
+      <c r="L2" s="10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1733,23 +2100,24 @@
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="5"/>
@@ -1757,11 +2125,14 @@
       <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="5" t="s">
+        <v>478</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="5"/>
@@ -1769,11 +2140,14 @@
       <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="5" t="s">
+        <v>477</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5"/>
@@ -1781,11 +2155,12 @@
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5"/>
@@ -1793,11 +2168,12 @@
       <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5"/>
@@ -1805,11 +2181,14 @@
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" t="s">
+        <v>450</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5"/>
@@ -1817,11 +2196,14 @@
       <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="5" t="s">
+        <v>479</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5"/>
@@ -1829,11 +2211,14 @@
       <c r="E10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="5" t="s">
+        <v>480</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1841,7 +2226,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>21</v>
@@ -1849,20 +2234,21 @@
       <c r="E11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1870,7 +2256,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>21</v>
@@ -1878,20 +2264,21 @@
       <c r="E12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1899,7 +2286,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>27</v>
@@ -1907,20 +2294,21 @@
       <c r="E13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -1934,23 +2322,24 @@
       <c r="E14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -1958,7 +2347,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>38</v>
@@ -1966,20 +2355,21 @@
       <c r="E15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
@@ -1987,7 +2377,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>38</v>
@@ -1995,20 +2385,21 @@
       <c r="E16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -2016,7 +2407,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>46</v>
@@ -2024,20 +2415,21 @@
       <c r="E17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
@@ -2045,7 +2437,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>46</v>
@@ -2053,20 +2445,21 @@
       <c r="E18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -2074,7 +2467,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>46</v>
@@ -2082,20 +2475,21 @@
       <c r="E19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
@@ -2103,7 +2497,7 @@
         <v>26</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>46</v>
@@ -2111,20 +2505,21 @@
       <c r="E20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>57</v>
       </c>
@@ -2132,7 +2527,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D21" s="6">
         <v>3.1</v>
@@ -2140,20 +2535,21 @@
       <c r="E21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="5">
         <v>3.1</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>59</v>
       </c>
@@ -2161,7 +2557,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>60</v>
@@ -2169,20 +2565,21 @@
       <c r="E22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>63</v>
       </c>
@@ -2190,7 +2587,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D23" s="6">
         <v>4</v>
@@ -2198,20 +2595,21 @@
       <c r="E23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="5">
+      <c r="I23" s="5">
         <v>4</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>67</v>
       </c>
@@ -2225,23 +2623,24 @@
       <c r="E24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="5">
+      <c r="I24" s="5">
         <v>1.4</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>71</v>
       </c>
@@ -2249,7 +2648,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>72</v>
@@ -2257,20 +2656,21 @@
       <c r="E25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -2284,23 +2684,24 @@
       <c r="E26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
         <v>79</v>
       </c>
       <c r="H26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>81</v>
       </c>
@@ -2314,23 +2715,24 @@
       <c r="E27" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="I27" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J27" s="5">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>87</v>
       </c>
@@ -2338,7 +2740,7 @@
         <v>88</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>89</v>
@@ -2346,11 +2748,17 @@
       <c r="E28" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="3"/>
+      <c r="F28" s="5" t="s">
+        <v>459</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I28" s="3"/>
+      <c r="L28" s="10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>91</v>
       </c>
@@ -2358,7 +2766,7 @@
         <v>88</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>89</v>
@@ -2366,11 +2774,17 @@
       <c r="E29" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="3"/>
+      <c r="F29" s="5" t="s">
+        <v>460</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I29" s="3"/>
+      <c r="L29" s="10" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>93</v>
       </c>
@@ -2378,7 +2792,7 @@
         <v>88</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>89</v>
@@ -2386,11 +2800,14 @@
       <c r="E30" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="5" t="s">
+        <v>461</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>95</v>
       </c>
@@ -2398,7 +2815,7 @@
         <v>88</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>89</v>
@@ -2406,11 +2823,14 @@
       <c r="E31" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F31" s="3"/>
+      <c r="F31" s="5" t="s">
+        <v>462</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>97</v>
       </c>
@@ -2418,7 +2838,7 @@
         <v>88</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>89</v>
@@ -2426,11 +2846,14 @@
       <c r="E32" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="5" t="s">
+        <v>463</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>99</v>
       </c>
@@ -2438,7 +2861,7 @@
         <v>88</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>89</v>
@@ -2446,11 +2869,14 @@
       <c r="E33" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33" s="5" t="s">
+        <v>464</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>101</v>
       </c>
@@ -2458,7 +2884,7 @@
         <v>88</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>89</v>
@@ -2466,11 +2892,14 @@
       <c r="E34" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="3"/>
+      <c r="F34" s="5" t="s">
+        <v>465</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>103</v>
       </c>
@@ -2478,7 +2907,7 @@
         <v>88</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>89</v>
@@ -2486,11 +2915,14 @@
       <c r="E35" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="3"/>
+      <c r="F35" s="5" t="s">
+        <v>466</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>105</v>
       </c>
@@ -2498,7 +2930,7 @@
         <v>88</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>89</v>
@@ -2506,11 +2938,14 @@
       <c r="E36" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="3"/>
+      <c r="F36" s="5" t="s">
+        <v>467</v>
+      </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>107</v>
       </c>
@@ -2518,7 +2953,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>89</v>
@@ -2526,11 +2961,14 @@
       <c r="E37" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="3"/>
+      <c r="F37" s="5" t="s">
+        <v>468</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>109</v>
       </c>
@@ -2538,7 +2976,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>89</v>
@@ -2546,11 +2984,14 @@
       <c r="E38" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F38" s="3"/>
+      <c r="F38" s="5" t="s">
+        <v>469</v>
+      </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>111</v>
       </c>
@@ -2558,7 +2999,7 @@
         <v>88</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>89</v>
@@ -2566,11 +3007,14 @@
       <c r="E39" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F39" s="3"/>
+      <c r="F39" s="5" t="s">
+        <v>470</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>113</v>
       </c>
@@ -2578,7 +3022,7 @@
         <v>88</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>89</v>
@@ -2586,11 +3030,14 @@
       <c r="E40" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="3"/>
+      <c r="F40" s="5" t="s">
+        <v>471</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>115</v>
       </c>
@@ -2598,7 +3045,7 @@
         <v>88</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>89</v>
@@ -2606,11 +3053,14 @@
       <c r="E41" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F41" s="3"/>
+      <c r="F41" s="12" t="s">
+        <v>472</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>117</v>
       </c>
@@ -2618,7 +3068,7 @@
         <v>88</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>89</v>
@@ -2626,11 +3076,14 @@
       <c r="E42" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F42" s="3"/>
+      <c r="F42" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>119</v>
       </c>
@@ -2638,7 +3091,7 @@
         <v>88</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>89</v>
@@ -2646,11 +3099,14 @@
       <c r="E43" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F43" s="3"/>
+      <c r="F43" s="12" t="s">
+        <v>474</v>
+      </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>121</v>
       </c>
@@ -2658,7 +3114,7 @@
         <v>88</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>89</v>
@@ -2666,11 +3122,14 @@
       <c r="E44" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F44" s="3"/>
+      <c r="F44" s="5" t="s">
+        <v>475</v>
+      </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>123</v>
       </c>
@@ -2678,7 +3137,7 @@
         <v>88</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>89</v>
@@ -2686,39 +3145,58 @@
       <c r="E45" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F45" s="3"/>
+      <c r="F45" s="5" t="s">
+        <v>476</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="5"/>
+      <c r="C46" s="12" t="s">
+        <v>452</v>
+      </c>
       <c r="D46" s="6" t="s">
         <v>125</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F46" s="3"/>
+      <c r="F46" s="5" t="s">
+        <v>481</v>
+      </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I46" s="3"/>
+      <c r="L46" s="10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="5"/>
+      <c r="C47" s="12" t="s">
+        <v>452</v>
+      </c>
       <c r="D47" s="6" t="s">
         <v>125</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F47" s="3"/>
+      <c r="F47" s="5" t="s">
+        <v>482</v>
+      </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I47" s="3"/>
+      <c r="L47" s="10" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>128</v>
       </c>
@@ -2726,7 +3204,7 @@
         <v>26</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D48" s="6">
         <v>1.1000000000000001</v>
@@ -2734,20 +3212,21 @@
       <c r="E48" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>130</v>
-      </c>
+      <c r="F48" s="5"/>
       <c r="G48" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I48" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>131</v>
       </c>
@@ -2755,7 +3234,7 @@
         <v>26</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D49" s="6">
         <v>1.3</v>
@@ -2763,20 +3242,21 @@
       <c r="E49" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="F49" s="5"/>
       <c r="G49" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I49" s="5">
         <v>1.3</v>
       </c>
-      <c r="I49" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>134</v>
       </c>
@@ -2790,17 +3270,18 @@
       <c r="E50" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F50" s="3"/>
+      <c r="F50" s="5"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" t="s">
-        <v>434</v>
-      </c>
-      <c r="K50" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I50" s="3"/>
+      <c r="J50" s="5">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>137</v>
       </c>
@@ -2808,7 +3289,7 @@
         <v>37</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>138</v>
@@ -2816,20 +3297,21 @@
       <c r="E51" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="F51" s="5"/>
       <c r="G51" s="5" t="s">
         <v>140</v>
       </c>
       <c r="H51" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I51" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="I51" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>141</v>
       </c>
@@ -2837,7 +3319,7 @@
         <v>37</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>142</v>
@@ -2845,20 +3327,21 @@
       <c r="E52" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="5"/>
+      <c r="G52" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="H52" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="I52" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="I52" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>146</v>
       </c>
@@ -2866,7 +3349,7 @@
         <v>37</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>147</v>
@@ -2874,20 +3357,21 @@
       <c r="E53" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="F53" s="5"/>
       <c r="G53" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I53" s="5">
         <v>2.4</v>
       </c>
-      <c r="I53" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>150</v>
       </c>
@@ -2895,7 +3379,7 @@
         <v>26</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D54" s="6">
         <v>2.2999999999999998</v>
@@ -2903,20 +3387,21 @@
       <c r="E54" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>152</v>
-      </c>
+      <c r="F54" s="5"/>
       <c r="G54" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I54" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I54" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>153</v>
       </c>
@@ -2924,7 +3409,7 @@
         <v>26</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>35</v>
@@ -2932,20 +3417,21 @@
       <c r="E55" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="F55" s="5"/>
       <c r="G55" s="5" t="s">
         <v>155</v>
       </c>
       <c r="H55" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I55" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I55" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>156</v>
       </c>
@@ -2953,7 +3439,7 @@
         <v>37</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D56" s="6">
         <v>2</v>
@@ -2961,17 +3447,18 @@
       <c r="E56" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F56" s="3"/>
+      <c r="F56" s="5"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="K56" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I56" s="3"/>
+      <c r="J56" s="5">
+        <v>1</v>
+      </c>
+      <c r="L56" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="5"/>
@@ -2979,11 +3466,14 @@
       <c r="E57" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F57" s="3"/>
+      <c r="F57" s="5" t="s">
+        <v>485</v>
+      </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="5"/>
@@ -2991,11 +3481,14 @@
       <c r="E58" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F58" s="3"/>
+      <c r="F58" s="5" t="s">
+        <v>486</v>
+      </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="5"/>
@@ -3003,11 +3496,14 @@
       <c r="E59" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F59" s="3"/>
+      <c r="F59" s="5" t="s">
+        <v>487</v>
+      </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="5"/>
@@ -3015,11 +3511,14 @@
       <c r="E60" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F60" s="3"/>
+      <c r="F60" s="5" t="s">
+        <v>488</v>
+      </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="5"/>
@@ -3027,11 +3526,14 @@
       <c r="E61" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F61" s="3"/>
+      <c r="F61" s="5" t="s">
+        <v>489</v>
+      </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="5"/>
@@ -3039,11 +3541,14 @@
       <c r="E62" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F62" s="3"/>
+      <c r="F62" s="5" t="s">
+        <v>490</v>
+      </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="5"/>
@@ -3051,11 +3556,14 @@
       <c r="E63" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F63" s="3"/>
+      <c r="F63" s="5" t="s">
+        <v>491</v>
+      </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="5"/>
@@ -3063,11 +3571,14 @@
       <c r="E64" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F64" s="3"/>
+      <c r="F64" s="5" t="s">
+        <v>492</v>
+      </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="5"/>
@@ -3075,11 +3586,14 @@
       <c r="E65" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F65" s="3"/>
+      <c r="F65" s="5" t="s">
+        <v>493</v>
+      </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>167</v>
       </c>
@@ -3093,26 +3607,27 @@
       <c r="E66" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="5"/>
+      <c r="G66" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="H66" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H66" s="5">
+      <c r="I66" s="5">
         <v>2</v>
       </c>
-      <c r="I66" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J66" s="5" t="s">
-        <v>436</v>
+      <c r="J66" s="5">
+        <v>1</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="5"/>
@@ -3120,11 +3635,17 @@
       <c r="E67" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F67" s="3"/>
+      <c r="F67" s="5" t="s">
+        <v>494</v>
+      </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I67" s="3"/>
+      <c r="L67" s="10" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="5"/>
@@ -3132,11 +3653,12 @@
       <c r="E68" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F68" s="3"/>
+      <c r="F68" s="5"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="5"/>
@@ -3144,11 +3666,12 @@
       <c r="E69" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F69" s="3"/>
+      <c r="F69" s="5"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>176</v>
       </c>
@@ -3156,7 +3679,7 @@
         <v>37</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>177</v>
@@ -3164,23 +3687,24 @@
       <c r="E70" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="5"/>
+      <c r="G70" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="H70" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="I70" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="I70" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="K70" s="5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J70" s="5">
+        <v>1</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>181</v>
       </c>
@@ -3188,7 +3712,7 @@
         <v>182</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>183</v>
@@ -3196,11 +3720,24 @@
       <c r="E71" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F71" s="5"/>
+      <c r="G71" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="I71" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="L71" s="10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="5"/>
@@ -3208,11 +3745,26 @@
       <c r="E72" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F72" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="I72" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="L72" s="10" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="5"/>
@@ -3220,11 +3772,17 @@
       <c r="E73" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F73" s="3"/>
+      <c r="F73" s="5" t="s">
+        <v>503</v>
+      </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I73" s="3"/>
+      <c r="L73" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>187</v>
       </c>
@@ -3236,11 +3794,12 @@
       <c r="E74" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F74" s="3"/>
+      <c r="F74" s="5"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>190</v>
       </c>
@@ -3254,11 +3813,12 @@
       <c r="E75" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F75" s="3"/>
+      <c r="F75" s="5"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>194</v>
       </c>
@@ -3272,26 +3832,27 @@
       <c r="E76" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="5"/>
+      <c r="G76" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="H76" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="I76" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I76" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>436</v>
+      <c r="J76" s="5">
+        <v>1</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>199</v>
       </c>
@@ -3305,23 +3866,24 @@
       <c r="E77" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="5"/>
+      <c r="G77" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="H77" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="I77" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="I77" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J77" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J77" s="5">
+        <v>1</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>205</v>
       </c>
@@ -3335,23 +3897,24 @@
       <c r="E78" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>205</v>
-      </c>
+      <c r="F78" s="5"/>
       <c r="G78" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H78" s="5">
-        <v>1</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J78" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H78" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I78" s="5">
+        <v>1</v>
+      </c>
+      <c r="J78" s="5">
+        <v>1</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>207</v>
       </c>
@@ -3365,23 +3928,24 @@
       <c r="E79" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="5"/>
+      <c r="G79" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="H79" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="H79" s="5">
+      <c r="I79" s="5">
         <v>4</v>
       </c>
-      <c r="I79" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J79" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J79" s="5">
+        <v>1</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>212</v>
       </c>
@@ -3395,23 +3959,24 @@
       <c r="E80" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="5"/>
+      <c r="G80" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="H80" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H80" s="5">
+      <c r="I80" s="5">
         <v>4</v>
       </c>
-      <c r="I80" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80" s="5">
+        <v>1</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="5"/>
@@ -3419,11 +3984,12 @@
       <c r="E81" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="F81" s="3"/>
+      <c r="F81" s="5"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="5"/>
@@ -3431,23 +3997,30 @@
       <c r="E82" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F82" s="3"/>
+      <c r="F82" s="5"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="5"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="5" t="s">
+      <c r="E83" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="F83" s="3"/>
+      <c r="F83" s="5" t="s">
+        <v>506</v>
+      </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I83" s="3"/>
+      <c r="L83" s="10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="5"/>
@@ -3455,11 +4028,17 @@
       <c r="E84" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F84" s="3"/>
+      <c r="F84" s="5" t="s">
+        <v>507</v>
+      </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I84" s="3"/>
+      <c r="L84" s="10" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="5"/>
@@ -3467,23 +4046,32 @@
       <c r="E85" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F85" s="3"/>
+      <c r="F85" s="5" t="s">
+        <v>508</v>
+      </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I85" s="3"/>
+      <c r="L85" s="10" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="5"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="5" t="s">
+      <c r="E86" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="F86" s="3"/>
+      <c r="F86" s="5" t="s">
+        <v>509</v>
+      </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="5"/>
@@ -3491,11 +4079,14 @@
       <c r="E87" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F87" s="3"/>
+      <c r="F87" s="5" t="s">
+        <v>510</v>
+      </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I87" s="3"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="5"/>
@@ -3503,11 +4094,14 @@
       <c r="E88" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F88" s="3"/>
+      <c r="F88" s="5" t="s">
+        <v>511</v>
+      </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="5"/>
@@ -3515,11 +4109,14 @@
       <c r="E89" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F89" s="3"/>
+      <c r="F89" s="5" t="s">
+        <v>512</v>
+      </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I89" s="3"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="5"/>
@@ -3527,11 +4124,14 @@
       <c r="E90" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F90" s="3"/>
+      <c r="F90" s="5" t="s">
+        <v>513</v>
+      </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="5"/>
@@ -3539,11 +4139,14 @@
       <c r="E91" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="F91" s="3"/>
+      <c r="F91" s="5" t="s">
+        <v>514</v>
+      </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="5"/>
@@ -3551,11 +4154,14 @@
       <c r="E92" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F92" s="3"/>
+      <c r="F92" s="5" t="s">
+        <v>515</v>
+      </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="5"/>
@@ -3563,11 +4169,15 @@
       <c r="E93" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F93" s="3"/>
+      <c r="F93" s="5"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I93" s="3"/>
+      <c r="L93" s="10" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>228</v>
       </c>
@@ -3581,20 +4191,21 @@
       <c r="E94" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="5"/>
+      <c r="G94" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="H94" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="I94" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="I94" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J94" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>234</v>
       </c>
@@ -3608,20 +4219,21 @@
       <c r="E95" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="5"/>
+      <c r="G95" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="H95" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H95" s="5" t="s">
+      <c r="I95" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="I95" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J95" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>237</v>
       </c>
@@ -3635,20 +4247,21 @@
       <c r="E96" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="5"/>
+      <c r="G96" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="H96" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="5" t="s">
+      <c r="I96" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="I96" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J96" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>239</v>
       </c>
@@ -3662,20 +4275,21 @@
       <c r="E97" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="5"/>
+      <c r="G97" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="H97" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="H97" s="5" t="s">
+      <c r="I97" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="I97" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J97" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>243</v>
       </c>
@@ -3689,20 +4303,21 @@
       <c r="E98" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="5"/>
+      <c r="G98" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="H98" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H98" s="5" t="s">
+      <c r="I98" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="I98" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J98" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>246</v>
       </c>
@@ -3716,20 +4331,21 @@
       <c r="E99" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="5"/>
+      <c r="G99" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="H99" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="H99" s="5" t="s">
+      <c r="I99" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="I99" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J99" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>250</v>
       </c>
@@ -3743,23 +4359,24 @@
       <c r="E100" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="5"/>
+      <c r="G100" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="H100" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="H100" s="5" t="s">
+      <c r="I100" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I100" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J100" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J100" s="5">
+        <v>1</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>254</v>
       </c>
@@ -3773,23 +4390,24 @@
       <c r="E101" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="F101" s="5" t="s">
-        <v>257</v>
-      </c>
+      <c r="F101" s="5"/>
       <c r="G101" s="5" t="s">
         <v>257</v>
       </c>
       <c r="H101" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I101" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I101" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J101" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J101" s="5">
+        <v>1</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="5"/>
@@ -3797,11 +4415,15 @@
       <c r="E102" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F102" s="3"/>
+      <c r="F102" s="5"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I102" s="3"/>
+      <c r="L102" s="10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>259</v>
       </c>
@@ -3815,23 +4437,24 @@
       <c r="E103" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="F103" s="5" t="s">
-        <v>259</v>
-      </c>
+      <c r="F103" s="5"/>
       <c r="G103" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="H103" s="5">
-        <v>1</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J103" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H103" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I103" s="5">
+        <v>1</v>
+      </c>
+      <c r="J103" s="5">
+        <v>1</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>261</v>
       </c>
@@ -3845,23 +4468,24 @@
       <c r="E104" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F104" s="5" t="s">
-        <v>265</v>
-      </c>
+      <c r="F104" s="5"/>
       <c r="G104" s="5" t="s">
         <v>265</v>
       </c>
       <c r="H104" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I104" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="I104" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J104" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J104" s="5">
+        <v>1</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>261</v>
       </c>
@@ -3875,23 +4499,24 @@
       <c r="E105" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="F105" s="5"/>
+      <c r="G105" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G105" s="5" t="s">
+      <c r="H105" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="H105" s="5" t="s">
+      <c r="I105" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="I105" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J105" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J105" s="5">
+        <v>1</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>268</v>
       </c>
@@ -3905,11 +4530,15 @@
       <c r="E106" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="F106" s="3"/>
+      <c r="F106" s="5"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I106" s="3"/>
+      <c r="L106" s="10" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>272</v>
       </c>
@@ -3923,11 +4552,12 @@
       <c r="E107" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="F107" s="3"/>
+      <c r="F107" s="5"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I107" s="3"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="5" t="s">
         <v>275</v>
@@ -3939,11 +4569,15 @@
       <c r="E108" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F108" s="3"/>
+      <c r="F108" s="5"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I108" s="3"/>
+      <c r="L108" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="5" t="s">
         <v>275</v>
@@ -3955,11 +4589,15 @@
       <c r="E109" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F109" s="3"/>
+      <c r="F109" s="5"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I109" s="3"/>
+      <c r="L109" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="5"/>
@@ -3967,11 +4605,12 @@
       <c r="E110" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="F110" s="3"/>
+      <c r="F110" s="5"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I110" s="3"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="5" t="s">
         <v>275</v>
@@ -3983,11 +4622,15 @@
       <c r="E111" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="F111" s="3"/>
+      <c r="F111" s="5"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I111" s="3"/>
+      <c r="L111" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="5" t="s">
         <v>275</v>
@@ -3999,11 +4642,15 @@
       <c r="E112" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="F112" s="3"/>
+      <c r="F112" s="5"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112" s="3"/>
+      <c r="L112" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="5" t="s">
         <v>275</v>
@@ -4015,11 +4662,15 @@
       <c r="E113" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="F113" s="3"/>
+      <c r="F113" s="5"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113" s="3"/>
+      <c r="L113" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="5" t="s">
         <v>275</v>
@@ -4031,11 +4682,15 @@
       <c r="E114" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="F114" s="3"/>
+      <c r="F114" s="5"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114" s="3"/>
+      <c r="L114" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="5"/>
@@ -4043,11 +4698,15 @@
       <c r="E115" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="F115" s="3"/>
+      <c r="F115" s="5"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I115" s="3"/>
+      <c r="L115" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="5" t="s">
         <v>275</v>
@@ -4059,11 +4718,15 @@
       <c r="E116" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F116" s="3"/>
+      <c r="F116" s="5"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I116" s="3"/>
+      <c r="L116" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>286</v>
       </c>
@@ -4077,107 +4740,260 @@
       <c r="E117" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F117" s="5"/>
+      <c r="G117" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="I117" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="L117" s="12" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="4"/>
+      <c r="C118" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>526</v>
+      </c>
       <c r="E118" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F118" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="I118" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="L118" s="10" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="4"/>
+      <c r="C119" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>538</v>
+      </c>
       <c r="E119" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F119" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="H119" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="I119" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="L119" s="10" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="4"/>
+      <c r="C120" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>538</v>
+      </c>
       <c r="E120" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F120" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="I120" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="L120" s="12" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="4"/>
+      <c r="C121" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>538</v>
+      </c>
       <c r="E121" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F121" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="I121" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="4"/>
+      <c r="C122" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>538</v>
+      </c>
       <c r="E122" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F122" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="I122" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="4"/>
+      <c r="C123" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>538</v>
+      </c>
       <c r="E123" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F123" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="I123" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="4"/>
+      <c r="C124" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>538</v>
+      </c>
       <c r="E124" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F124" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="I124" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="4"/>
+      <c r="C125" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>538</v>
+      </c>
       <c r="E125" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F125" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="I125" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>296</v>
       </c>
@@ -4191,11 +5007,15 @@
       <c r="E126" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="F126" s="3"/>
+      <c r="F126" s="5"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I126" s="3"/>
+      <c r="L126" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>299</v>
       </c>
@@ -4207,11 +5027,15 @@
       <c r="E127" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F127" s="3"/>
+      <c r="F127" s="5"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I127" s="3"/>
+      <c r="L127" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>301</v>
       </c>
@@ -4223,11 +5047,15 @@
       <c r="E128" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="F128" s="3"/>
+      <c r="F128" s="5"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I128" s="3"/>
+      <c r="L128" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>303</v>
       </c>
@@ -4239,11 +5067,15 @@
       <c r="E129" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="F129" s="3"/>
+      <c r="F129" s="5"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I129" s="3"/>
+      <c r="L129" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>305</v>
       </c>
@@ -4255,11 +5087,15 @@
       <c r="E130" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="F130" s="3"/>
+      <c r="F130" s="5"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I130" s="3"/>
+      <c r="L130" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>307</v>
       </c>
@@ -4273,11 +5109,15 @@
       <c r="E131" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F131" s="3"/>
+      <c r="F131" s="5"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I131" s="3"/>
+      <c r="L131" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>310</v>
       </c>
@@ -4291,11 +5131,15 @@
       <c r="E132" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="F132" s="3"/>
+      <c r="F132" s="5"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I132" s="3"/>
+      <c r="L132" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="5"/>
@@ -4303,11 +5147,15 @@
       <c r="E133" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="F133" s="3"/>
+      <c r="F133" s="5"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I133" s="3"/>
+      <c r="L133" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>313</v>
       </c>
@@ -4321,11 +5169,15 @@
       <c r="E134" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="F134" s="3"/>
+      <c r="F134" s="5"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I134" s="3"/>
+      <c r="L134" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>315</v>
       </c>
@@ -4339,11 +5191,15 @@
       <c r="E135" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F135" s="3"/>
+      <c r="F135" s="5"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I135" s="3"/>
+      <c r="L135" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="5"/>
@@ -4351,11 +5207,15 @@
       <c r="E136" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="F136" s="3"/>
+      <c r="F136" s="5"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I136" s="3"/>
+      <c r="L136" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="5"/>
@@ -4363,11 +5223,12 @@
       <c r="E137" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="F137" s="3"/>
+      <c r="F137" s="5"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I137" s="3"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="5"/>
@@ -4375,11 +5236,12 @@
       <c r="E138" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F138" s="3"/>
+      <c r="F138" s="5"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I138" s="3"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>321</v>
       </c>
@@ -4393,23 +5255,24 @@
       <c r="E139" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="F139" s="5" t="s">
-        <v>321</v>
-      </c>
+      <c r="F139" s="5"/>
       <c r="G139" s="5" t="s">
         <v>321</v>
       </c>
       <c r="H139" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="I139" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="I139" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J139" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J139" s="5">
+        <v>1</v>
+      </c>
+      <c r="K139" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>324</v>
       </c>
@@ -4417,7 +5280,7 @@
         <v>37</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>325</v>
@@ -4425,20 +5288,21 @@
       <c r="E140" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="F140" s="5" t="s">
+      <c r="F140" s="5"/>
+      <c r="G140" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="G140" s="5" t="s">
+      <c r="H140" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H140" s="5" t="s">
+      <c r="I140" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="I140" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J140" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>324</v>
       </c>
@@ -4446,7 +5310,7 @@
         <v>37</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>329</v>
@@ -4454,20 +5318,21 @@
       <c r="E141" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="F141" s="5" t="s">
+      <c r="F141" s="5"/>
+      <c r="G141" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="G141" s="5" t="s">
+      <c r="H141" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="H141" s="5" t="s">
+      <c r="I141" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="I141" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J141" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>324</v>
       </c>
@@ -4475,7 +5340,7 @@
         <v>37</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>332</v>
@@ -4483,20 +5348,21 @@
       <c r="E142" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F142" s="5" t="s">
+      <c r="F142" s="5"/>
+      <c r="G142" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="G142" s="5" t="s">
+      <c r="H142" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="H142" s="5" t="s">
+      <c r="I142" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="I142" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J142" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>324</v>
       </c>
@@ -4504,7 +5370,7 @@
         <v>37</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>335</v>
@@ -4512,20 +5378,21 @@
       <c r="E143" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="F143" s="5" t="s">
+      <c r="F143" s="5"/>
+      <c r="G143" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="G143" s="5" t="s">
+      <c r="H143" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="H143" s="5" t="s">
+      <c r="I143" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="I143" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J143" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>324</v>
       </c>
@@ -4533,7 +5400,7 @@
         <v>37</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>338</v>
@@ -4541,20 +5408,21 @@
       <c r="E144" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="F144" s="5" t="s">
+      <c r="F144" s="5"/>
+      <c r="G144" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="G144" s="5" t="s">
+      <c r="H144" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H144" s="5" t="s">
+      <c r="I144" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="I144" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J144" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>324</v>
       </c>
@@ -4562,7 +5430,7 @@
         <v>37</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>341</v>
@@ -4570,20 +5438,21 @@
       <c r="E145" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="F145" s="5" t="s">
+      <c r="F145" s="5"/>
+      <c r="G145" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="G145" s="5" t="s">
+      <c r="H145" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="H145" s="5" t="s">
+      <c r="I145" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="I145" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J145" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>324</v>
       </c>
@@ -4591,7 +5460,7 @@
         <v>37</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>344</v>
@@ -4599,20 +5468,21 @@
       <c r="E146" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="F146" s="5" t="s">
+      <c r="F146" s="5"/>
+      <c r="G146" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="G146" s="5" t="s">
+      <c r="H146" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="H146" s="5" t="s">
+      <c r="I146" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="I146" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J146" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>324</v>
       </c>
@@ -4620,7 +5490,7 @@
         <v>37</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>347</v>
@@ -4628,20 +5498,21 @@
       <c r="E147" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="F147" s="5" t="s">
+      <c r="F147" s="5"/>
+      <c r="G147" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="G147" s="5" t="s">
+      <c r="H147" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="H147" s="5" t="s">
+      <c r="I147" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="I147" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J147" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>350</v>
       </c>
@@ -4655,23 +5526,24 @@
       <c r="E148" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="F148" s="5" t="s">
-        <v>350</v>
-      </c>
+      <c r="F148" s="5"/>
       <c r="G148" s="5" t="s">
         <v>350</v>
       </c>
       <c r="H148" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="I148" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="I148" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J148" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J148" s="5">
+        <v>1</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>353</v>
       </c>
@@ -4679,7 +5551,7 @@
         <v>37</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>177</v>
@@ -4687,23 +5559,24 @@
       <c r="E149" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="F149" s="5" t="s">
+      <c r="F149" s="5"/>
+      <c r="G149" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="G149" s="5" t="s">
+      <c r="H149" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="H149" s="5" t="s">
+      <c r="I149" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="I149" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="K149" s="5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J149" s="5">
+        <v>1</v>
+      </c>
+      <c r="L149" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>356</v>
       </c>
@@ -4711,7 +5584,7 @@
         <v>37</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>177</v>
@@ -4719,23 +5592,24 @@
       <c r="E150" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="F150" s="5" t="s">
+      <c r="F150" s="5"/>
+      <c r="G150" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="G150" s="5" t="s">
+      <c r="H150" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="H150" s="5" t="s">
+      <c r="I150" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="I150" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="K150" s="5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J150" s="5">
+        <v>1</v>
+      </c>
+      <c r="L150" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="5"/>
@@ -4743,14 +5617,15 @@
       <c r="E151" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="F151" s="3"/>
+      <c r="F151" s="5"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
-      <c r="J151" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I151" s="3"/>
+      <c r="K151" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>360</v>
       </c>
@@ -4764,23 +5639,24 @@
       <c r="E152" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="F152" s="5" t="s">
+      <c r="F152" s="5"/>
+      <c r="G152" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="G152" s="5" t="s">
+      <c r="H152" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="H152" s="5" t="s">
+      <c r="I152" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="I152" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J152" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J152" s="5">
+        <v>1</v>
+      </c>
+      <c r="K152" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>360</v>
       </c>
@@ -4794,23 +5670,24 @@
       <c r="E153" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="F153" s="5" t="s">
+      <c r="F153" s="5"/>
+      <c r="G153" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="G153" s="5" t="s">
+      <c r="H153" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="H153" s="5" t="s">
+      <c r="I153" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="I153" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J153" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J153" s="5">
+        <v>1</v>
+      </c>
+      <c r="K153" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>360</v>
       </c>
@@ -4824,23 +5701,24 @@
       <c r="E154" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="F154" s="5" t="s">
+      <c r="F154" s="5"/>
+      <c r="G154" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="G154" s="5" t="s">
+      <c r="H154" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="H154" s="5" t="s">
+      <c r="I154" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="I154" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J154" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J154" s="5">
+        <v>1</v>
+      </c>
+      <c r="K154" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>360</v>
       </c>
@@ -4854,23 +5732,24 @@
       <c r="E155" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="F155" s="5" t="s">
+      <c r="F155" s="5"/>
+      <c r="G155" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="G155" s="5" t="s">
+      <c r="H155" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="H155" s="5" t="s">
+      <c r="I155" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="I155" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J155" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J155" s="5">
+        <v>1</v>
+      </c>
+      <c r="K155" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>360</v>
       </c>
@@ -4884,23 +5763,24 @@
       <c r="E156" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="F156" s="5" t="s">
+      <c r="F156" s="5"/>
+      <c r="G156" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="G156" s="5" t="s">
+      <c r="H156" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="H156" s="5" t="s">
+      <c r="I156" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="I156" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J156" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J156" s="5">
+        <v>1</v>
+      </c>
+      <c r="K156" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>360</v>
       </c>
@@ -4914,23 +5794,24 @@
       <c r="E157" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="F157" s="5" t="s">
+      <c r="F157" s="5"/>
+      <c r="G157" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="G157" s="5" t="s">
+      <c r="H157" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="H157" s="5" t="s">
+      <c r="I157" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="I157" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J157" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J157" s="5">
+        <v>1</v>
+      </c>
+      <c r="K157" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="5"/>
@@ -4938,11 +5819,12 @@
       <c r="E158" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="F158" s="3"/>
+      <c r="F158" s="5"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I158" s="3"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>360</v>
       </c>
@@ -4956,23 +5838,24 @@
       <c r="E159" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="F159" s="5"/>
+      <c r="G159" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="G159" s="5" t="s">
+      <c r="H159" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="H159" s="5" t="s">
+      <c r="I159" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="I159" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J159" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J159" s="5">
+        <v>1</v>
+      </c>
+      <c r="K159" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>360</v>
       </c>
@@ -4986,23 +5869,24 @@
       <c r="E160" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="F160" s="5" t="s">
+      <c r="F160" s="5"/>
+      <c r="G160" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="G160" s="5" t="s">
+      <c r="H160" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="H160" s="5" t="s">
+      <c r="I160" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="I160" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J160" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J160" s="5">
+        <v>1</v>
+      </c>
+      <c r="K160" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="5"/>
@@ -5010,11 +5894,12 @@
       <c r="E161" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="F161" s="3"/>
+      <c r="F161" s="5"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I161" s="3"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>373</v>
       </c>
@@ -5028,17 +5913,18 @@
       <c r="E162" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="F162" s="3"/>
+      <c r="F162" s="5"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
-      <c r="I162" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J162" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I162" s="3"/>
+      <c r="J162" s="5">
+        <v>1</v>
+      </c>
+      <c r="K162" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>377</v>
       </c>
@@ -5052,38 +5938,44 @@
       <c r="E163" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="F163" s="3"/>
+      <c r="F163" s="5"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
-      <c r="I163" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J163" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I163" s="3"/>
+      <c r="J163" s="5">
+        <v>1</v>
+      </c>
+      <c r="K163" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>379</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="C164" s="5"/>
+      <c r="C164" s="5" t="s">
+        <v>452</v>
+      </c>
       <c r="D164" s="6">
         <v>179</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="F164" s="3"/>
+      <c r="F164" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
-      <c r="K164" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I164" s="3"/>
+      <c r="L164" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>382</v>
       </c>
@@ -5097,23 +5989,24 @@
       <c r="E165" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="F165" s="5" t="s">
+      <c r="F165" s="5"/>
+      <c r="G165" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="G165" s="5" t="s">
+      <c r="H165" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="H165" s="5" t="s">
+      <c r="I165" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="I165" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J165" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J165" s="5">
+        <v>1</v>
+      </c>
+      <c r="K165" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>387</v>
       </c>
@@ -5127,23 +6020,24 @@
       <c r="E166" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="F166" s="5" t="s">
+      <c r="F166" s="5"/>
+      <c r="G166" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="G166" s="5" t="s">
+      <c r="H166" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="H166" s="5" t="s">
+      <c r="I166" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="I166" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J166" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J166" s="5">
+        <v>1</v>
+      </c>
+      <c r="K166" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>389</v>
       </c>
@@ -5157,23 +6051,24 @@
       <c r="E167" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="F167" s="5" t="s">
+      <c r="F167" s="5"/>
+      <c r="G167" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="G167" s="5" t="s">
+      <c r="H167" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="H167" s="5" t="s">
+      <c r="I167" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="I167" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J167" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J167" s="5">
+        <v>1</v>
+      </c>
+      <c r="K167" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>393</v>
       </c>
@@ -5187,23 +6082,24 @@
       <c r="E168" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="F168" s="5" t="s">
+      <c r="F168" s="5"/>
+      <c r="G168" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="G168" s="5" t="s">
+      <c r="H168" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="H168" s="5" t="s">
+      <c r="I168" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="I168" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J168" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J168" s="5">
+        <v>1</v>
+      </c>
+      <c r="K168" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>397</v>
       </c>
@@ -5217,23 +6113,24 @@
       <c r="E169" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="F169" s="5" t="s">
+      <c r="F169" s="5"/>
+      <c r="G169" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="G169" s="5" t="s">
+      <c r="H169" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="H169" s="5" t="s">
+      <c r="I169" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="I169" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J169" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J169" s="5">
+        <v>1</v>
+      </c>
+      <c r="K169" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>401</v>
       </c>
@@ -5247,23 +6144,24 @@
       <c r="E170" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F170" s="5" t="s">
+      <c r="F170" s="5"/>
+      <c r="G170" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="G170" s="5" t="s">
+      <c r="H170" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="H170" s="5" t="s">
+      <c r="I170" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="I170" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="J170" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J170" s="5">
+        <v>1</v>
+      </c>
+      <c r="K170" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="5"/>
@@ -5271,14 +6169,15 @@
       <c r="E171" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="F171" s="3"/>
+      <c r="F171" s="5"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
-      <c r="K171" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I171" s="3"/>
+      <c r="L171" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="5"/>
@@ -5286,11 +6185,12 @@
       <c r="E172" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="F172" s="3"/>
+      <c r="F172" s="5"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I172" s="3"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="5"/>
@@ -5298,11 +6198,12 @@
       <c r="E173" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="F173" s="3"/>
+      <c r="F173" s="5"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I173" s="3"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="5"/>
@@ -5310,11 +6211,12 @@
       <c r="E174" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="F174" s="3"/>
+      <c r="F174" s="5"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I174" s="3"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="5"/>
@@ -5322,11 +6224,12 @@
       <c r="E175" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="F175" s="3"/>
+      <c r="F175" s="5"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I175" s="3"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="5"/>
@@ -5334,11 +6237,12 @@
       <c r="E176" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="F176" s="3"/>
+      <c r="F176" s="5"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I176" s="3"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="5"/>
@@ -5346,11 +6250,12 @@
       <c r="E177" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="F177" s="3"/>
+      <c r="F177" s="5"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I177" s="3"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="5"/>
@@ -5358,11 +6263,12 @@
       <c r="E178" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="F178" s="3"/>
+      <c r="F178" s="5"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I178" s="3"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="5"/>
@@ -5370,11 +6276,12 @@
       <c r="E179" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="F179" s="3"/>
+      <c r="F179" s="5"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I179" s="3"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="5"/>
@@ -5382,11 +6289,12 @@
       <c r="E180" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="F180" s="3"/>
+      <c r="F180" s="5"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I180" s="3"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="5"/>
@@ -5394,11 +6302,12 @@
       <c r="E181" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="F181" s="3"/>
+      <c r="F181" s="5"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I181" s="3"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="5"/>
@@ -5406,11 +6315,12 @@
       <c r="E182" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="F182" s="3"/>
+      <c r="F182" s="5"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I182" s="3"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="5"/>
@@ -5418,11 +6328,12 @@
       <c r="E183" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="F183" s="3"/>
+      <c r="F183" s="5"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I183" s="3"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="5"/>
@@ -5430,11 +6341,12 @@
       <c r="E184" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="F184" s="3"/>
+      <c r="F184" s="5"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I184" s="3"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="5"/>
@@ -5442,11 +6354,12 @@
       <c r="E185" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="F185" s="3"/>
+      <c r="F185" s="5"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I185" s="3"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="5"/>
@@ -5454,11 +6367,12 @@
       <c r="E186" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="F186" s="3"/>
+      <c r="F186" s="5"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I186" s="3"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="5"/>
@@ -5466,11 +6380,12 @@
       <c r="E187" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="F187" s="3"/>
+      <c r="F187" s="5"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I187" s="3"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="5"/>
@@ -5478,11 +6393,12 @@
       <c r="E188" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="F188" s="3"/>
+      <c r="F188" s="5"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I188" s="3"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="5"/>
@@ -5490,11 +6406,12 @@
       <c r="E189" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="F189" s="3"/>
+      <c r="F189" s="5"/>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I189" s="3"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="5"/>
@@ -5502,11 +6419,12 @@
       <c r="E190" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="F190" s="3"/>
+      <c r="F190" s="5"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I190" s="3"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>423</v>
       </c>
@@ -5522,14 +6440,15 @@
       <c r="E191" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="F191" s="3"/>
+      <c r="F191" s="5"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
-      <c r="K191" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I191" s="3"/>
+      <c r="L191" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>426</v>
       </c>
@@ -5545,17 +6464,36 @@
       <c r="E192" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="F192" s="5" t="s">
+      <c r="F192" s="5"/>
+      <c r="G192" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="G192" s="5" t="s">
+      <c r="H192" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="H192" s="5" t="s">
+      <c r="I192" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="I192" s="5" t="s">
-        <v>434</v>
+      <c r="J192" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="9:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I193" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="J193">
+        <f>SUM(J2:J192)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="194" spans="9:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I194" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="J194" s="11">
+        <f>J193/191</f>
+        <v>0.44502617801047123</v>
       </c>
     </row>
   </sheetData>
@@ -5569,6 +6507,70 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B1048B-7F06-B546-976D-A570C563EB9C}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="65.1640625" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/doc-project/R2019b jarext worksheet.xlsx
+++ b/doc-project/R2019b jarext worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janke/local/repos/matlab-jump/doc-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F51BE87-9480-4741-A068-034413926FE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC57A34-3666-B64E-8601-4FE6A2A977BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33820" windowHeight="25560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="563">
   <si>
     <t>Title</t>
   </si>
@@ -1683,6 +1683,45 @@
   </si>
   <si>
     <t>BSD</t>
+  </si>
+  <si>
+    <t>SHA doesn't match any 3.x or 4.x JARs from the ANTLR website. I've asked MathWorks what this is.</t>
+  </si>
+  <si>
+    <t>Apache 2.0, BSD 2-Clause</t>
+  </si>
+  <si>
+    <t>CDDL</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Custom - https://github.com/dom4j/dom4j/blob/master/LICENSE</t>
+  </si>
+  <si>
+    <t>BSD 3-Clause - https://docs.oracle.com/cloud/latest/big-data-discovery-cloud/BDDLG/cl_bsd_jaxen.htm#BDDLG-concept_8C539F6F54BF4178B45A1057C503F402</t>
+  </si>
+  <si>
+    <t>Custom - http://www.jdom.org/docs/faq.html#a0030</t>
+  </si>
+  <si>
+    <t>Eclipse Distribution License</t>
+  </si>
+  <si>
+    <t>GPL with Classpath Exception</t>
+  </si>
+  <si>
+    <t>Proprietary</t>
+  </si>
+  <si>
+    <t>MPL 1.0</t>
+  </si>
+  <si>
+    <t>GPL / Commercial Dual-Licensed</t>
+  </si>
+  <si>
+    <t>TMate Open Source License</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1805,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1789,6 +1828,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2010,10 +2050,10 @@
   <dimension ref="A1:L194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I108" sqref="I108"/>
+      <selection pane="bottomRight" activeCell="K167" sqref="K167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2093,7 +2133,9 @@
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="12" t="s">
+        <v>551</v>
+      </c>
       <c r="D3" s="6">
         <v>1</v>
       </c>
@@ -2113,9 +2155,7 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
@@ -2176,7 +2216,9 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="12" t="s">
+        <v>530</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="5" t="s">
         <v>16</v>
@@ -2187,6 +2229,9 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
+      <c r="L8" s="10" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
@@ -2315,7 +2360,9 @@
       <c r="B14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="12" t="s">
+        <v>552</v>
+      </c>
       <c r="D14" s="6">
         <v>1.1000000000000001</v>
       </c>
@@ -2335,9 +2382,7 @@
       <c r="J14" s="5">
         <v>1</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
@@ -2616,7 +2661,9 @@
       <c r="B24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="12" t="s">
+        <v>552</v>
+      </c>
       <c r="D24" s="6">
         <v>1.4</v>
       </c>
@@ -2636,9 +2683,7 @@
       <c r="J24" s="5">
         <v>1</v>
       </c>
-      <c r="K24" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
@@ -2677,7 +2722,9 @@
       <c r="B26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="12" t="s">
+        <v>553</v>
+      </c>
       <c r="D26" s="6">
         <v>1.6</v>
       </c>
@@ -2697,18 +2744,18 @@
       <c r="J26" s="5">
         <v>1</v>
       </c>
-      <c r="K26" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="5" t="s">
+        <v>452</v>
+      </c>
       <c r="D27" s="6" t="s">
         <v>83</v>
       </c>
@@ -2728,9 +2775,7 @@
       <c r="J27" s="5">
         <v>1</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
@@ -3600,7 +3645,9 @@
       <c r="B66" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C66" s="5"/>
+      <c r="C66" s="12" t="s">
+        <v>554</v>
+      </c>
       <c r="D66" s="6" t="s">
         <v>169</v>
       </c>
@@ -3620,9 +3667,7 @@
       <c r="J66" s="5">
         <v>1</v>
       </c>
-      <c r="K66" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K66" s="5"/>
       <c r="L66" s="5" t="s">
         <v>439</v>
       </c>
@@ -3825,7 +3870,9 @@
       <c r="B76" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C76" s="5"/>
+      <c r="C76" s="12" t="s">
+        <v>452</v>
+      </c>
       <c r="D76" s="6" t="s">
         <v>196</v>
       </c>
@@ -3845,12 +3892,8 @@
       <c r="J76" s="5">
         <v>1</v>
       </c>
-      <c r="K76" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="L76" s="5" t="s">
-        <v>440</v>
-      </c>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
@@ -3859,7 +3902,9 @@
       <c r="B77" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C77" s="5"/>
+      <c r="C77" s="12" t="s">
+        <v>452</v>
+      </c>
       <c r="D77" s="6" t="s">
         <v>201</v>
       </c>
@@ -3879,9 +3924,7 @@
       <c r="J77" s="5">
         <v>1</v>
       </c>
-      <c r="K77" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K77" s="5"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
@@ -3890,7 +3933,9 @@
       <c r="B78" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C78" s="5"/>
+      <c r="C78" s="12" t="s">
+        <v>452</v>
+      </c>
       <c r="D78" s="6">
         <v>1</v>
       </c>
@@ -3910,9 +3955,7 @@
       <c r="J78" s="5">
         <v>1</v>
       </c>
-      <c r="K78" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K78" s="5"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
@@ -3921,7 +3964,9 @@
       <c r="B79" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C79" s="5"/>
+      <c r="C79" s="12" t="s">
+        <v>452</v>
+      </c>
       <c r="D79" s="6" t="s">
         <v>209</v>
       </c>
@@ -3941,9 +3986,7 @@
       <c r="J79" s="5">
         <v>1</v>
       </c>
-      <c r="K79" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K79" s="5"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
@@ -3952,7 +3995,9 @@
       <c r="B80" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C80" s="5"/>
+      <c r="C80" s="12" t="s">
+        <v>452</v>
+      </c>
       <c r="D80" s="6" t="s">
         <v>209</v>
       </c>
@@ -3972,14 +4017,14 @@
       <c r="J80" s="5">
         <v>1</v>
       </c>
-      <c r="K80" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K80" s="5"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="5"/>
+      <c r="C81" s="12" t="s">
+        <v>452</v>
+      </c>
       <c r="D81" s="4"/>
       <c r="E81" s="5" t="s">
         <v>215</v>
@@ -4352,7 +4397,9 @@
       <c r="B100" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C100" s="5"/>
+      <c r="C100" s="12" t="s">
+        <v>452</v>
+      </c>
       <c r="D100" s="6" t="s">
         <v>252</v>
       </c>
@@ -4372,9 +4419,7 @@
       <c r="J100" s="5">
         <v>1</v>
       </c>
-      <c r="K100" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K100" s="5"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
@@ -4383,7 +4428,9 @@
       <c r="B101" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C101" s="5"/>
+      <c r="C101" s="12" t="s">
+        <v>555</v>
+      </c>
       <c r="D101" s="6" t="s">
         <v>35</v>
       </c>
@@ -4403,9 +4450,7 @@
       <c r="J101" s="5">
         <v>1</v>
       </c>
-      <c r="K101" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K101" s="5"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
@@ -4430,7 +4475,9 @@
       <c r="B103" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C103" s="5"/>
+      <c r="C103" s="12" t="s">
+        <v>556</v>
+      </c>
       <c r="D103" s="6">
         <v>1</v>
       </c>
@@ -4450,9 +4497,7 @@
       <c r="J103" s="5">
         <v>1</v>
       </c>
-      <c r="K103" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K103" s="5"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -4461,7 +4506,9 @@
       <c r="B104" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C104" s="5"/>
+      <c r="C104" s="12" t="s">
+        <v>557</v>
+      </c>
       <c r="D104" s="6" t="s">
         <v>263</v>
       </c>
@@ -4481,9 +4528,7 @@
       <c r="J104" s="5">
         <v>1</v>
       </c>
-      <c r="K104" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K104" s="5"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
@@ -4492,7 +4537,9 @@
       <c r="B105" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C105" s="5"/>
+      <c r="C105" s="12" t="s">
+        <v>557</v>
+      </c>
       <c r="D105" s="6" t="s">
         <v>263</v>
       </c>
@@ -4512,9 +4559,7 @@
       <c r="J105" s="5">
         <v>1</v>
       </c>
-      <c r="K105" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K105" s="5"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
@@ -4562,7 +4607,9 @@
       <c r="B108" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C108" s="5"/>
+      <c r="C108" s="12" t="s">
+        <v>559</v>
+      </c>
       <c r="D108" s="6" t="s">
         <v>276</v>
       </c>
@@ -4582,7 +4629,9 @@
       <c r="B109" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C109" s="5"/>
+      <c r="C109" s="12" t="s">
+        <v>559</v>
+      </c>
       <c r="D109" s="6" t="s">
         <v>276</v>
       </c>
@@ -4600,8 +4649,10 @@
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="4"/>
+      <c r="C110" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="D110" s="13"/>
       <c r="E110" s="5" t="s">
         <v>279</v>
       </c>
@@ -4615,8 +4666,10 @@
       <c r="B111" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="6" t="s">
+      <c r="C111" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="D111" s="13" t="s">
         <v>276</v>
       </c>
       <c r="E111" s="5" t="s">
@@ -4635,7 +4688,9 @@
       <c r="B112" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C112" s="5"/>
+      <c r="C112" s="12" t="s">
+        <v>559</v>
+      </c>
       <c r="D112" s="6" t="s">
         <v>276</v>
       </c>
@@ -4655,7 +4710,9 @@
       <c r="B113" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C113" s="5"/>
+      <c r="C113" s="12" t="s">
+        <v>559</v>
+      </c>
       <c r="D113" s="6" t="s">
         <v>276</v>
       </c>
@@ -4675,7 +4732,9 @@
       <c r="B114" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C114" s="5"/>
+      <c r="C114" s="12" t="s">
+        <v>559</v>
+      </c>
       <c r="D114" s="6" t="s">
         <v>276</v>
       </c>
@@ -4693,7 +4752,9 @@
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
-      <c r="C115" s="5"/>
+      <c r="C115" s="12" t="s">
+        <v>559</v>
+      </c>
       <c r="D115" s="4"/>
       <c r="E115" s="5" t="s">
         <v>284</v>
@@ -4711,7 +4772,9 @@
       <c r="B116" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C116" s="5"/>
+      <c r="C116" s="12" t="s">
+        <v>559</v>
+      </c>
       <c r="D116" s="6" t="s">
         <v>276</v>
       </c>
@@ -4733,7 +4796,9 @@
       <c r="B117" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C117" s="5"/>
+      <c r="C117" s="12" t="s">
+        <v>530</v>
+      </c>
       <c r="D117" s="6" t="s">
         <v>192</v>
       </c>
@@ -4753,9 +4818,7 @@
       <c r="J117">
         <v>1</v>
       </c>
-      <c r="K117" s="12" t="s">
-        <v>435</v>
-      </c>
+      <c r="K117" s="12"/>
       <c r="L117" s="12" t="s">
         <v>524</v>
       </c>
@@ -5000,7 +5063,9 @@
       <c r="B126" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C126" s="5"/>
+      <c r="C126" s="12" t="s">
+        <v>559</v>
+      </c>
       <c r="D126" s="6">
         <v>2.1</v>
       </c>
@@ -5022,7 +5087,9 @@
       <c r="B127" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C127" s="5"/>
+      <c r="C127" s="12" t="s">
+        <v>559</v>
+      </c>
       <c r="D127" s="4"/>
       <c r="E127" s="5" t="s">
         <v>300</v>
@@ -5042,7 +5109,9 @@
       <c r="B128" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C128" s="5"/>
+      <c r="C128" s="12" t="s">
+        <v>559</v>
+      </c>
       <c r="D128" s="4"/>
       <c r="E128" s="5" t="s">
         <v>302</v>
@@ -5062,7 +5131,9 @@
       <c r="B129" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C129" s="5"/>
+      <c r="C129" s="12" t="s">
+        <v>559</v>
+      </c>
       <c r="D129" s="4"/>
       <c r="E129" s="5" t="s">
         <v>304</v>
@@ -5082,7 +5153,9 @@
       <c r="B130" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C130" s="5"/>
+      <c r="C130" s="12" t="s">
+        <v>559</v>
+      </c>
       <c r="D130" s="4"/>
       <c r="E130" s="5" t="s">
         <v>306</v>
@@ -5102,7 +5175,9 @@
       <c r="B131" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C131" s="5"/>
+      <c r="C131" s="12" t="s">
+        <v>559</v>
+      </c>
       <c r="D131" s="6" t="s">
         <v>308</v>
       </c>
@@ -5124,7 +5199,9 @@
       <c r="B132" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C132" s="5"/>
+      <c r="C132" s="12" t="s">
+        <v>559</v>
+      </c>
       <c r="D132" s="6">
         <v>3.3</v>
       </c>
@@ -5142,7 +5219,9 @@
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
-      <c r="C133" s="5"/>
+      <c r="C133" s="12" t="s">
+        <v>559</v>
+      </c>
       <c r="D133" s="4"/>
       <c r="E133" s="5" t="s">
         <v>312</v>
@@ -5162,7 +5241,9 @@
       <c r="B134" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C134" s="5"/>
+      <c r="C134" s="12" t="s">
+        <v>559</v>
+      </c>
       <c r="D134" s="6" t="s">
         <v>308</v>
       </c>
@@ -5184,7 +5265,9 @@
       <c r="B135" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C135" s="5"/>
+      <c r="C135" s="12" t="s">
+        <v>559</v>
+      </c>
       <c r="D135" s="6" t="s">
         <v>316</v>
       </c>
@@ -5202,7 +5285,9 @@
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
-      <c r="C136" s="5"/>
+      <c r="C136" s="12" t="s">
+        <v>559</v>
+      </c>
       <c r="D136" s="4"/>
       <c r="E136" s="5" t="s">
         <v>318</v>
@@ -5248,7 +5333,9 @@
       <c r="B139" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C139" s="5"/>
+      <c r="C139" s="12" t="s">
+        <v>452</v>
+      </c>
       <c r="D139" s="6" t="s">
         <v>322</v>
       </c>
@@ -5268,9 +5355,7 @@
       <c r="J139" s="5">
         <v>1</v>
       </c>
-      <c r="K139" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K139" s="5"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
@@ -5519,7 +5604,9 @@
       <c r="B148" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C148" s="5"/>
+      <c r="C148" s="12" t="s">
+        <v>452</v>
+      </c>
       <c r="D148" s="6" t="s">
         <v>351</v>
       </c>
@@ -5539,9 +5626,7 @@
       <c r="J148" s="5">
         <v>1</v>
       </c>
-      <c r="K148" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K148" s="5"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
@@ -5612,7 +5697,9 @@
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
-      <c r="C151" s="5"/>
+      <c r="C151" s="12" t="s">
+        <v>560</v>
+      </c>
       <c r="D151" s="4"/>
       <c r="E151" s="5" t="s">
         <v>359</v>
@@ -5621,9 +5708,6 @@
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
-      <c r="K151" t="s">
-        <v>435</v>
-      </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
@@ -5632,7 +5716,9 @@
       <c r="B152" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C152" s="5"/>
+      <c r="C152" s="12" t="s">
+        <v>560</v>
+      </c>
       <c r="D152" s="6" t="s">
         <v>362</v>
       </c>
@@ -5652,9 +5738,7 @@
       <c r="J152" s="5">
         <v>1</v>
       </c>
-      <c r="K152" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K152" s="5"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
@@ -5663,7 +5747,9 @@
       <c r="B153" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C153" s="5"/>
+      <c r="C153" s="12" t="s">
+        <v>560</v>
+      </c>
       <c r="D153" s="6" t="s">
         <v>362</v>
       </c>
@@ -5683,9 +5769,7 @@
       <c r="J153" s="5">
         <v>1</v>
       </c>
-      <c r="K153" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K153" s="5"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
@@ -5694,7 +5778,9 @@
       <c r="B154" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C154" s="5"/>
+      <c r="C154" s="12" t="s">
+        <v>560</v>
+      </c>
       <c r="D154" s="6" t="s">
         <v>362</v>
       </c>
@@ -5714,9 +5800,7 @@
       <c r="J154" s="5">
         <v>1</v>
       </c>
-      <c r="K154" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K154" s="5"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
@@ -5725,7 +5809,9 @@
       <c r="B155" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C155" s="5"/>
+      <c r="C155" s="12" t="s">
+        <v>560</v>
+      </c>
       <c r="D155" s="6" t="s">
         <v>362</v>
       </c>
@@ -5745,9 +5831,7 @@
       <c r="J155" s="5">
         <v>1</v>
       </c>
-      <c r="K155" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K155" s="5"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
@@ -5756,7 +5840,9 @@
       <c r="B156" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C156" s="5"/>
+      <c r="C156" s="12" t="s">
+        <v>560</v>
+      </c>
       <c r="D156" s="6" t="s">
         <v>362</v>
       </c>
@@ -5776,9 +5862,7 @@
       <c r="J156" s="5">
         <v>1</v>
       </c>
-      <c r="K156" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K156" s="5"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
@@ -5787,7 +5871,9 @@
       <c r="B157" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C157" s="5"/>
+      <c r="C157" s="12" t="s">
+        <v>560</v>
+      </c>
       <c r="D157" s="6" t="s">
         <v>362</v>
       </c>
@@ -5807,14 +5893,14 @@
       <c r="J157" s="5">
         <v>1</v>
       </c>
-      <c r="K157" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K157" s="5"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
-      <c r="C158" s="5"/>
+      <c r="C158" s="12" t="s">
+        <v>560</v>
+      </c>
       <c r="D158" s="4"/>
       <c r="E158" s="5" t="s">
         <v>369</v>
@@ -5831,7 +5917,9 @@
       <c r="B159" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C159" s="5"/>
+      <c r="C159" s="12" t="s">
+        <v>560</v>
+      </c>
       <c r="D159" s="6" t="s">
         <v>362</v>
       </c>
@@ -5851,9 +5939,7 @@
       <c r="J159" s="5">
         <v>1</v>
       </c>
-      <c r="K159" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K159" s="5"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
@@ -5862,7 +5948,9 @@
       <c r="B160" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C160" s="5"/>
+      <c r="C160" s="12" t="s">
+        <v>560</v>
+      </c>
       <c r="D160" s="6" t="s">
         <v>362</v>
       </c>
@@ -5882,9 +5970,7 @@
       <c r="J160" s="5">
         <v>1</v>
       </c>
-      <c r="K160" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K160" s="5"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
@@ -5903,7 +5989,7 @@
       <c r="A162" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B162" s="14" t="s">
         <v>374</v>
       </c>
       <c r="C162" s="7"/>
@@ -5920,15 +6006,13 @@
       <c r="J162" s="5">
         <v>1</v>
       </c>
-      <c r="K162" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K162" s="5"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B163" s="14" t="s">
         <v>374</v>
       </c>
       <c r="C163" s="7"/>
@@ -5945,9 +6029,7 @@
       <c r="J163" s="5">
         <v>1</v>
       </c>
-      <c r="K163" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K163" s="5"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
@@ -6002,9 +6084,7 @@
       <c r="J165" s="5">
         <v>1</v>
       </c>
-      <c r="K165" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K165" s="5"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
@@ -6033,9 +6113,7 @@
       <c r="J166" s="5">
         <v>1</v>
       </c>
-      <c r="K166" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K166" s="5"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
@@ -6075,7 +6153,9 @@
       <c r="B168" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C168" s="5"/>
+      <c r="C168" s="12" t="s">
+        <v>561</v>
+      </c>
       <c r="D168" s="6" t="s">
         <v>395</v>
       </c>
@@ -6095,9 +6175,7 @@
       <c r="J168" s="5">
         <v>1</v>
       </c>
-      <c r="K168" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K168" s="5"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
@@ -6106,7 +6184,9 @@
       <c r="B169" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C169" s="5"/>
+      <c r="C169" s="12" t="s">
+        <v>562</v>
+      </c>
       <c r="D169" s="6" t="s">
         <v>399</v>
       </c>
@@ -6126,9 +6206,7 @@
       <c r="J169" s="5">
         <v>1</v>
       </c>
-      <c r="K169" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K169" s="5"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
@@ -6137,7 +6215,9 @@
       <c r="B170" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C170" s="5"/>
+      <c r="C170" s="12" t="s">
+        <v>562</v>
+      </c>
       <c r="D170" s="6" t="s">
         <v>399</v>
       </c>
@@ -6157,9 +6237,7 @@
       <c r="J170" s="5">
         <v>1</v>
       </c>
-      <c r="K170" s="5" t="s">
-        <v>435</v>
-      </c>
+      <c r="K170" s="5"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
@@ -6497,11 +6575,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B162" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B163" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/doc-project/R2019b jarext worksheet.xlsx
+++ b/doc-project/R2019b jarext worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janke/local/repos/matlab-jump/doc-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC57A34-3666-B64E-8601-4FE6A2A977BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9729EE34-FB20-F14B-92BD-F44F78D98FB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33820" windowHeight="25560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29940" windowHeight="25360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R2019b" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="566">
   <si>
     <t>Title</t>
   </si>
@@ -1722,6 +1722,15 @@
   </si>
   <si>
     <t>TMate Open Source License</t>
+  </si>
+  <si>
+    <t>Total OSS</t>
+  </si>
+  <si>
+    <t>OSS+Valid</t>
+  </si>
+  <si>
+    <t>Not needed. These XML things ship with JDK itself starting with 1.8. Though maybe we _should_ include them to induce Matlab-congruent failure states.</t>
   </si>
 </sst>
 </file>
@@ -1739,26 +1748,31 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2047,13 +2061,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L194"/>
+  <dimension ref="A1:M195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K167" sqref="K167"/>
+      <selection pane="bottomRight" activeCell="K28" sqref="K28:K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2066,11 +2080,12 @@
     <col min="6" max="6" width="18.1640625" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
     <col min="8" max="8" width="28.83203125" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2099,16 +2114,19 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="5"/>
@@ -2122,11 +2140,14 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="L2" s="10" t="s">
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -2155,9 +2176,12 @@
       <c r="J3" s="5">
         <v>1</v>
       </c>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="5"/>
@@ -2171,8 +2195,11 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="5"/>
@@ -2186,8 +2213,11 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5"/>
@@ -2199,8 +2229,11 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5"/>
@@ -2212,8 +2245,11 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="12" t="s">
@@ -2229,11 +2265,14 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="L8" s="10" t="s">
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5"/>
@@ -2247,8 +2286,11 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5"/>
@@ -2262,8 +2304,11 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -2292,8 +2337,11 @@
       <c r="J11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -2322,8 +2370,11 @@
       <c r="J12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -2352,8 +2403,11 @@
       <c r="J13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -2382,9 +2436,12 @@
       <c r="J14" s="5">
         <v>1</v>
       </c>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -2413,8 +2470,11 @@
       <c r="J15" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
@@ -2443,8 +2503,11 @@
       <c r="J16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -2473,8 +2536,11 @@
       <c r="J17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
@@ -2503,8 +2569,11 @@
       <c r="J18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -2533,8 +2602,11 @@
       <c r="J19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
@@ -2563,8 +2635,11 @@
       <c r="J20" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>57</v>
       </c>
@@ -2593,8 +2668,11 @@
       <c r="J21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>59</v>
       </c>
@@ -2623,8 +2701,11 @@
       <c r="J22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>63</v>
       </c>
@@ -2653,8 +2734,11 @@
       <c r="J23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>67</v>
       </c>
@@ -2683,9 +2767,12 @@
       <c r="J24" s="5">
         <v>1</v>
       </c>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K24" s="5">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>71</v>
       </c>
@@ -2714,8 +2801,11 @@
       <c r="J25" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -2744,9 +2834,12 @@
       <c r="J26" s="5">
         <v>1</v>
       </c>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K26" s="5">
+        <v>1</v>
+      </c>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>81</v>
       </c>
@@ -2775,9 +2868,12 @@
       <c r="J27" s="5">
         <v>1</v>
       </c>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K27" s="5">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>87</v>
       </c>
@@ -2799,11 +2895,17 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="L28" s="10" t="s">
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5">
+        <v>1</v>
+      </c>
+      <c r="M28" s="10" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>91</v>
       </c>
@@ -2825,11 +2927,17 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="L29" s="10" t="s">
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5">
+        <v>1</v>
+      </c>
+      <c r="M29" s="10" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>93</v>
       </c>
@@ -2851,8 +2959,14 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J30" s="5">
+        <v>1</v>
+      </c>
+      <c r="K30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>95</v>
       </c>
@@ -2874,8 +2988,14 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>97</v>
       </c>
@@ -2897,8 +3017,14 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J32" s="5">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>99</v>
       </c>
@@ -2920,8 +3046,14 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J33" s="5">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>101</v>
       </c>
@@ -2943,8 +3075,14 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J34" s="5">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>103</v>
       </c>
@@ -2966,8 +3104,14 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J35" s="5">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>105</v>
       </c>
@@ -2989,8 +3133,14 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J36" s="5">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>107</v>
       </c>
@@ -3012,8 +3162,14 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J37" s="5">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>109</v>
       </c>
@@ -3035,8 +3191,14 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J38" s="5">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>111</v>
       </c>
@@ -3058,8 +3220,14 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J39" s="5">
+        <v>1</v>
+      </c>
+      <c r="K39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>113</v>
       </c>
@@ -3081,8 +3249,14 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J40" s="5">
+        <v>1</v>
+      </c>
+      <c r="K40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>115</v>
       </c>
@@ -3104,8 +3278,14 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J41" s="5">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>117</v>
       </c>
@@ -3127,8 +3307,14 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J42" s="5">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>119</v>
       </c>
@@ -3150,8 +3336,14 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J43" s="5">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>121</v>
       </c>
@@ -3173,8 +3365,14 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J44" s="5">
+        <v>1</v>
+      </c>
+      <c r="K44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>123</v>
       </c>
@@ -3196,8 +3394,14 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J45" s="5">
+        <v>1</v>
+      </c>
+      <c r="K45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="12" t="s">
@@ -3215,11 +3419,17 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="L46" s="10" t="s">
+      <c r="J46" s="5">
+        <v>1</v>
+      </c>
+      <c r="K46" s="5">
+        <v>1</v>
+      </c>
+      <c r="M46" s="10" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="12" t="s">
@@ -3237,11 +3447,17 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="L47" s="10" t="s">
+      <c r="J47" s="5">
+        <v>1</v>
+      </c>
+      <c r="K47" s="5">
+        <v>1</v>
+      </c>
+      <c r="M47" s="10" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>128</v>
       </c>
@@ -3270,8 +3486,11 @@
       <c r="J48" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>131</v>
       </c>
@@ -3300,8 +3519,11 @@
       <c r="J49" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>134</v>
       </c>
@@ -3322,11 +3544,14 @@
       <c r="J50" s="5">
         <v>1</v>
       </c>
-      <c r="L50" t="s">
+      <c r="K50" s="5">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>137</v>
       </c>
@@ -3355,8 +3580,11 @@
       <c r="J51" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>141</v>
       </c>
@@ -3385,8 +3613,11 @@
       <c r="J52" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>146</v>
       </c>
@@ -3415,8 +3646,11 @@
       <c r="J53" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>150</v>
       </c>
@@ -3445,8 +3679,11 @@
       <c r="J54" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>153</v>
       </c>
@@ -3475,8 +3712,11 @@
       <c r="J55" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>156</v>
       </c>
@@ -3499,11 +3739,14 @@
       <c r="J56" s="5">
         <v>1</v>
       </c>
-      <c r="L56" t="s">
+      <c r="K56" s="5">
+        <v>1</v>
+      </c>
+      <c r="M56" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="5"/>
@@ -3517,8 +3760,11 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="5"/>
@@ -3532,8 +3778,11 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="5"/>
@@ -3547,8 +3796,11 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="5"/>
@@ -3562,8 +3814,11 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="5"/>
@@ -3577,8 +3832,11 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J61" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="5"/>
@@ -3592,8 +3850,11 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J62" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="5"/>
@@ -3607,8 +3868,11 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="5"/>
@@ -3622,8 +3886,11 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="5"/>
@@ -3637,8 +3904,11 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>167</v>
       </c>
@@ -3667,12 +3937,15 @@
       <c r="J66" s="5">
         <v>1</v>
       </c>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5" t="s">
+      <c r="K66" s="5">
+        <v>1</v>
+      </c>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="5"/>
@@ -3686,11 +3959,14 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-      <c r="L67" s="10" t="s">
+      <c r="J67" s="5">
+        <v>1</v>
+      </c>
+      <c r="M67" s="10" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="5"/>
@@ -3702,8 +3978,11 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J68" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="5"/>
@@ -3715,8 +3994,11 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J69" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>176</v>
       </c>
@@ -3745,11 +4027,14 @@
       <c r="J70" s="5">
         <v>1</v>
       </c>
-      <c r="L70" s="5" t="s">
+      <c r="K70" s="5">
+        <v>1</v>
+      </c>
+      <c r="M70" s="5" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>181</v>
       </c>
@@ -3775,14 +4060,17 @@
       <c r="I71" s="3">
         <v>2.4</v>
       </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="L71" s="10" t="s">
+      <c r="J71" s="5">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="M71" s="10" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="5"/>
@@ -3802,14 +4090,17 @@
       <c r="I72" s="3">
         <v>2.4</v>
       </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="L72" s="10" t="s">
+      <c r="J72" s="5">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="M72" s="10" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="5"/>
@@ -3823,11 +4114,14 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
-      <c r="L73" s="10" t="s">
+      <c r="J73" s="5">
+        <v>1</v>
+      </c>
+      <c r="M73" s="10" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>187</v>
       </c>
@@ -3843,8 +4137,11 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J74" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>190</v>
       </c>
@@ -3862,8 +4159,11 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J75" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>194</v>
       </c>
@@ -3892,10 +4192,13 @@
       <c r="J76" s="5">
         <v>1</v>
       </c>
-      <c r="K76" s="5"/>
+      <c r="K76" s="5">
+        <v>1</v>
+      </c>
       <c r="L76" s="5"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="5"/>
+    </row>
+    <row r="77" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>199</v>
       </c>
@@ -3924,9 +4227,12 @@
       <c r="J77" s="5">
         <v>1</v>
       </c>
-      <c r="K77" s="5"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K77" s="5">
+        <v>1</v>
+      </c>
+      <c r="L77" s="5"/>
+    </row>
+    <row r="78" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>205</v>
       </c>
@@ -3955,9 +4261,12 @@
       <c r="J78" s="5">
         <v>1</v>
       </c>
-      <c r="K78" s="5"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K78" s="5">
+        <v>1</v>
+      </c>
+      <c r="L78" s="5"/>
+    </row>
+    <row r="79" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>207</v>
       </c>
@@ -3986,9 +4295,12 @@
       <c r="J79" s="5">
         <v>1</v>
       </c>
-      <c r="K79" s="5"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K79" s="5">
+        <v>1</v>
+      </c>
+      <c r="L79" s="5"/>
+    </row>
+    <row r="80" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>212</v>
       </c>
@@ -4017,9 +4329,12 @@
       <c r="J80" s="5">
         <v>1</v>
       </c>
-      <c r="K80" s="5"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K80" s="5">
+        <v>1</v>
+      </c>
+      <c r="L80" s="5"/>
+    </row>
+    <row r="81" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="12" t="s">
@@ -4033,8 +4348,11 @@
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J81" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="5"/>
@@ -4046,8 +4364,11 @@
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J82" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="5"/>
@@ -4061,11 +4382,14 @@
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
-      <c r="L83" s="10" t="s">
+      <c r="J83" s="5">
+        <v>1</v>
+      </c>
+      <c r="M83" s="10" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="5"/>
@@ -4079,11 +4403,14 @@
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
-      <c r="L84" s="10" t="s">
+      <c r="J84" s="5">
+        <v>1</v>
+      </c>
+      <c r="M84" s="10" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="5"/>
@@ -4097,11 +4424,14 @@
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
-      <c r="L85" s="10" t="s">
+      <c r="J85" s="5">
+        <v>1</v>
+      </c>
+      <c r="M85" s="10" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="5"/>
@@ -4115,8 +4445,11 @@
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J86" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="5"/>
@@ -4130,8 +4463,11 @@
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J87" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="5"/>
@@ -4145,8 +4481,11 @@
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J88" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="5"/>
@@ -4160,8 +4499,11 @@
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J89" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="5"/>
@@ -4175,8 +4517,11 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J90" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="5"/>
@@ -4190,8 +4535,11 @@
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J91" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="5"/>
@@ -4205,8 +4553,11 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J92" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="5"/>
@@ -4218,11 +4569,14 @@
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
-      <c r="L93" s="10" t="s">
+      <c r="J93" s="5">
+        <v>1</v>
+      </c>
+      <c r="M93" s="10" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>228</v>
       </c>
@@ -4249,8 +4603,11 @@
       <c r="J94" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K94" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>234</v>
       </c>
@@ -4277,8 +4634,11 @@
       <c r="J95" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K95" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>237</v>
       </c>
@@ -4305,8 +4665,11 @@
       <c r="J96" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K96" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>239</v>
       </c>
@@ -4333,8 +4696,11 @@
       <c r="J97" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K97" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>243</v>
       </c>
@@ -4361,8 +4727,11 @@
       <c r="J98" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K98" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>246</v>
       </c>
@@ -4389,8 +4758,11 @@
       <c r="J99" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K99" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>250</v>
       </c>
@@ -4419,9 +4791,12 @@
       <c r="J100" s="5">
         <v>1</v>
       </c>
-      <c r="K100" s="5"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K100" s="5">
+        <v>1</v>
+      </c>
+      <c r="L100" s="5"/>
+    </row>
+    <row r="101" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>254</v>
       </c>
@@ -4450,9 +4825,12 @@
       <c r="J101" s="5">
         <v>1</v>
       </c>
-      <c r="K101" s="5"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K101" s="5">
+        <v>1</v>
+      </c>
+      <c r="L101" s="5"/>
+    </row>
+    <row r="102" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="5"/>
@@ -4464,11 +4842,14 @@
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
-      <c r="L102" s="10" t="s">
+      <c r="J102" s="5">
+        <v>1</v>
+      </c>
+      <c r="M102" s="10" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>259</v>
       </c>
@@ -4497,9 +4878,12 @@
       <c r="J103" s="5">
         <v>1</v>
       </c>
-      <c r="K103" s="5"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K103" s="5">
+        <v>1</v>
+      </c>
+      <c r="L103" s="5"/>
+    </row>
+    <row r="104" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>261</v>
       </c>
@@ -4528,9 +4912,12 @@
       <c r="J104" s="5">
         <v>1</v>
       </c>
-      <c r="K104" s="5"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K104" s="5">
+        <v>1</v>
+      </c>
+      <c r="L104" s="5"/>
+    </row>
+    <row r="105" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>261</v>
       </c>
@@ -4559,9 +4946,12 @@
       <c r="J105" s="5">
         <v>1</v>
       </c>
-      <c r="K105" s="5"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K105" s="5">
+        <v>1</v>
+      </c>
+      <c r="L105" s="5"/>
+    </row>
+    <row r="106" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>268</v>
       </c>
@@ -4579,11 +4969,14 @@
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
-      <c r="L106" s="10" t="s">
+      <c r="J106" s="5">
+        <v>1</v>
+      </c>
+      <c r="M106" s="10" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>272</v>
       </c>
@@ -4601,8 +4994,11 @@
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J107" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="5" t="s">
         <v>275</v>
@@ -4620,11 +5016,14 @@
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
-      <c r="L108" s="10" t="s">
+      <c r="J108" s="5">
+        <v>0</v>
+      </c>
+      <c r="M108" s="10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="5" t="s">
         <v>275</v>
@@ -4642,11 +5041,14 @@
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
-      <c r="L109" s="10" t="s">
+      <c r="J109" s="5">
+        <v>0</v>
+      </c>
+      <c r="M109" s="10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="12" t="s">
@@ -4660,8 +5062,11 @@
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J110" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="5" t="s">
         <v>275</v>
@@ -4679,11 +5084,14 @@
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
-      <c r="L111" s="10" t="s">
+      <c r="J111" s="5">
+        <v>0</v>
+      </c>
+      <c r="M111" s="10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="5" t="s">
         <v>275</v>
@@ -4701,11 +5109,14 @@
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
-      <c r="L112" s="10" t="s">
+      <c r="J112" s="5">
+        <v>0</v>
+      </c>
+      <c r="M112" s="10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="5" t="s">
         <v>275</v>
@@ -4723,11 +5134,14 @@
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
-      <c r="L113" s="10" t="s">
+      <c r="J113" s="5">
+        <v>0</v>
+      </c>
+      <c r="M113" s="10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="5" t="s">
         <v>275</v>
@@ -4745,11 +5159,14 @@
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
-      <c r="L114" s="10" t="s">
+      <c r="J114" s="5">
+        <v>0</v>
+      </c>
+      <c r="M114" s="10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="12" t="s">
@@ -4763,11 +5180,14 @@
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
-      <c r="L115" s="10" t="s">
+      <c r="J115" s="5">
+        <v>0</v>
+      </c>
+      <c r="M115" s="10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="5" t="s">
         <v>275</v>
@@ -4785,11 +5205,14 @@
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
-      <c r="L116" s="10" t="s">
+      <c r="J116" s="5">
+        <v>0</v>
+      </c>
+      <c r="M116" s="10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>286</v>
       </c>
@@ -4815,15 +5238,18 @@
       <c r="I117" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="J117">
-        <v>1</v>
-      </c>
-      <c r="K117" s="12"/>
-      <c r="L117" s="12" t="s">
+      <c r="J117" s="5">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="12" t="s">
@@ -4847,14 +5273,17 @@
       <c r="I118" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="J118">
-        <v>1</v>
-      </c>
-      <c r="L118" s="10" t="s">
+      <c r="J118" s="5">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="M118" s="10" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="12" t="s">
@@ -4878,14 +5307,17 @@
       <c r="I119" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="J119">
-        <v>1</v>
-      </c>
-      <c r="L119" s="10" t="s">
+      <c r="J119" s="5">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="M119" s="10" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="12" t="s">
@@ -4909,14 +5341,17 @@
       <c r="I120" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="J120">
-        <v>1</v>
-      </c>
-      <c r="L120" s="12" t="s">
+      <c r="J120" s="5">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="M120" s="12" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="12" t="s">
@@ -4940,11 +5375,14 @@
       <c r="I121" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="J121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J121" s="5">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="12" t="s">
@@ -4968,11 +5406,14 @@
       <c r="I122" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="J122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J122" s="5">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="12" t="s">
@@ -4996,11 +5437,14 @@
       <c r="I123" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="J123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J123" s="5">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="12" t="s">
@@ -5024,11 +5468,14 @@
       <c r="I124" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="J124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J124" s="5">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="12" t="s">
@@ -5052,11 +5499,14 @@
       <c r="I125" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="J125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J125" s="5">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>296</v>
       </c>
@@ -5076,11 +5526,14 @@
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
-      <c r="L126" s="10" t="s">
+      <c r="J126" s="5">
+        <v>0</v>
+      </c>
+      <c r="M126" s="10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>299</v>
       </c>
@@ -5098,11 +5551,14 @@
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
-      <c r="L127" s="10" t="s">
+      <c r="J127" s="5">
+        <v>0</v>
+      </c>
+      <c r="M127" s="10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>301</v>
       </c>
@@ -5120,11 +5576,14 @@
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
-      <c r="L128" s="10" t="s">
+      <c r="J128" s="5">
+        <v>0</v>
+      </c>
+      <c r="M128" s="10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>303</v>
       </c>
@@ -5142,11 +5601,14 @@
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
-      <c r="L129" s="10" t="s">
+      <c r="J129" s="5">
+        <v>0</v>
+      </c>
+      <c r="M129" s="10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>305</v>
       </c>
@@ -5164,11 +5626,14 @@
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
-      <c r="L130" s="10" t="s">
+      <c r="J130" s="5">
+        <v>0</v>
+      </c>
+      <c r="M130" s="10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>307</v>
       </c>
@@ -5188,11 +5653,14 @@
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
-      <c r="L131" s="10" t="s">
+      <c r="J131" s="5">
+        <v>0</v>
+      </c>
+      <c r="M131" s="10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>310</v>
       </c>
@@ -5212,11 +5680,14 @@
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
-      <c r="L132" s="10" t="s">
+      <c r="J132" s="5">
+        <v>0</v>
+      </c>
+      <c r="M132" s="10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="12" t="s">
@@ -5230,11 +5701,14 @@
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
-      <c r="L133" s="10" t="s">
+      <c r="J133" s="5">
+        <v>0</v>
+      </c>
+      <c r="M133" s="10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>313</v>
       </c>
@@ -5254,11 +5728,14 @@
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
-      <c r="L134" s="10" t="s">
+      <c r="J134" s="5">
+        <v>0</v>
+      </c>
+      <c r="M134" s="10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>315</v>
       </c>
@@ -5278,11 +5755,14 @@
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
-      <c r="L135" s="10" t="s">
+      <c r="J135" s="5">
+        <v>0</v>
+      </c>
+      <c r="M135" s="10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="12" t="s">
@@ -5296,11 +5776,14 @@
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
-      <c r="L136" s="10" t="s">
+      <c r="J136" s="5">
+        <v>0</v>
+      </c>
+      <c r="M136" s="10" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="5"/>
@@ -5312,8 +5795,11 @@
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J137" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="5"/>
@@ -5325,8 +5811,11 @@
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J138" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>321</v>
       </c>
@@ -5355,9 +5844,12 @@
       <c r="J139" s="5">
         <v>1</v>
       </c>
-      <c r="K139" s="5"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K139" s="5">
+        <v>1</v>
+      </c>
+      <c r="L139" s="5"/>
+    </row>
+    <row r="140" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>324</v>
       </c>
@@ -5386,8 +5878,11 @@
       <c r="J140" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K140" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>324</v>
       </c>
@@ -5416,8 +5911,11 @@
       <c r="J141" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K141" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>324</v>
       </c>
@@ -5446,8 +5944,11 @@
       <c r="J142" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K142" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>324</v>
       </c>
@@ -5476,8 +5977,11 @@
       <c r="J143" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K143" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>324</v>
       </c>
@@ -5506,8 +6010,11 @@
       <c r="J144" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K144" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>324</v>
       </c>
@@ -5536,8 +6043,11 @@
       <c r="J145" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K145" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>324</v>
       </c>
@@ -5566,8 +6076,11 @@
       <c r="J146" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K146" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>324</v>
       </c>
@@ -5596,8 +6109,11 @@
       <c r="J147" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K147" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>350</v>
       </c>
@@ -5626,9 +6142,12 @@
       <c r="J148" s="5">
         <v>1</v>
       </c>
-      <c r="K148" s="5"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K148" s="5">
+        <v>1</v>
+      </c>
+      <c r="L148" s="5"/>
+    </row>
+    <row r="149" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>353</v>
       </c>
@@ -5657,11 +6176,14 @@
       <c r="J149" s="5">
         <v>1</v>
       </c>
-      <c r="L149" s="5" t="s">
+      <c r="K149" s="5">
+        <v>1</v>
+      </c>
+      <c r="M149" s="5" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>356</v>
       </c>
@@ -5690,11 +6212,14 @@
       <c r="J150" s="5">
         <v>1</v>
       </c>
-      <c r="L150" s="5" t="s">
+      <c r="K150" s="5">
+        <v>1</v>
+      </c>
+      <c r="M150" s="5" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="12" t="s">
@@ -5708,8 +6233,11 @@
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J151" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>360</v>
       </c>
@@ -5738,9 +6266,12 @@
       <c r="J152" s="5">
         <v>1</v>
       </c>
-      <c r="K152" s="5"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K152" s="5">
+        <v>1</v>
+      </c>
+      <c r="L152" s="5"/>
+    </row>
+    <row r="153" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>360</v>
       </c>
@@ -5769,9 +6300,12 @@
       <c r="J153" s="5">
         <v>1</v>
       </c>
-      <c r="K153" s="5"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K153" s="5">
+        <v>1</v>
+      </c>
+      <c r="L153" s="5"/>
+    </row>
+    <row r="154" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>360</v>
       </c>
@@ -5800,9 +6334,12 @@
       <c r="J154" s="5">
         <v>1</v>
       </c>
-      <c r="K154" s="5"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K154" s="5">
+        <v>1</v>
+      </c>
+      <c r="L154" s="5"/>
+    </row>
+    <row r="155" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>360</v>
       </c>
@@ -5831,9 +6368,12 @@
       <c r="J155" s="5">
         <v>1</v>
       </c>
-      <c r="K155" s="5"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K155" s="5">
+        <v>1</v>
+      </c>
+      <c r="L155" s="5"/>
+    </row>
+    <row r="156" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>360</v>
       </c>
@@ -5862,9 +6402,12 @@
       <c r="J156" s="5">
         <v>1</v>
       </c>
-      <c r="K156" s="5"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K156" s="5">
+        <v>1</v>
+      </c>
+      <c r="L156" s="5"/>
+    </row>
+    <row r="157" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>360</v>
       </c>
@@ -5893,9 +6436,12 @@
       <c r="J157" s="5">
         <v>1</v>
       </c>
-      <c r="K157" s="5"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K157" s="5">
+        <v>1</v>
+      </c>
+      <c r="L157" s="5"/>
+    </row>
+    <row r="158" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="12" t="s">
@@ -5909,8 +6455,11 @@
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J158" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>360</v>
       </c>
@@ -5939,9 +6488,12 @@
       <c r="J159" s="5">
         <v>1</v>
       </c>
-      <c r="K159" s="5"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K159" s="5">
+        <v>1</v>
+      </c>
+      <c r="L159" s="5"/>
+    </row>
+    <row r="160" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>360</v>
       </c>
@@ -5970,9 +6522,12 @@
       <c r="J160" s="5">
         <v>1</v>
       </c>
-      <c r="K160" s="5"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K160" s="5">
+        <v>1</v>
+      </c>
+      <c r="L160" s="5"/>
+    </row>
+    <row r="161" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="5"/>
@@ -5984,8 +6539,11 @@
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J161" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>373</v>
       </c>
@@ -6006,9 +6564,12 @@
       <c r="J162" s="5">
         <v>1</v>
       </c>
-      <c r="K162" s="5"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K162" s="5">
+        <v>1</v>
+      </c>
+      <c r="L162" s="5"/>
+    </row>
+    <row r="163" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>377</v>
       </c>
@@ -6029,9 +6590,12 @@
       <c r="J163" s="5">
         <v>1</v>
       </c>
-      <c r="K163" s="5"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K163" s="5">
+        <v>1</v>
+      </c>
+      <c r="L163" s="5"/>
+    </row>
+    <row r="164" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>379</v>
       </c>
@@ -6053,11 +6617,14 @@
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
-      <c r="L164" t="s">
+      <c r="J164" s="5">
+        <v>1</v>
+      </c>
+      <c r="M164" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>382</v>
       </c>
@@ -6084,9 +6651,12 @@
       <c r="J165" s="5">
         <v>1</v>
       </c>
-      <c r="K165" s="5"/>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K165" s="5">
+        <v>1</v>
+      </c>
+      <c r="L165" s="5"/>
+    </row>
+    <row r="166" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>387</v>
       </c>
@@ -6113,9 +6683,12 @@
       <c r="J166" s="5">
         <v>1</v>
       </c>
-      <c r="K166" s="5"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K166" s="5">
+        <v>1</v>
+      </c>
+      <c r="L166" s="5"/>
+    </row>
+    <row r="167" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>389</v>
       </c>
@@ -6142,11 +6715,14 @@
       <c r="J167" s="5">
         <v>1</v>
       </c>
-      <c r="K167" s="5" t="s">
+      <c r="K167" s="5">
+        <v>1</v>
+      </c>
+      <c r="L167" s="5" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>393</v>
       </c>
@@ -6175,9 +6751,12 @@
       <c r="J168" s="5">
         <v>1</v>
       </c>
-      <c r="K168" s="5"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K168" s="5">
+        <v>1</v>
+      </c>
+      <c r="L168" s="5"/>
+    </row>
+    <row r="169" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>397</v>
       </c>
@@ -6206,9 +6785,12 @@
       <c r="J169" s="5">
         <v>1</v>
       </c>
-      <c r="K169" s="5"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K169" s="5">
+        <v>1</v>
+      </c>
+      <c r="L169" s="5"/>
+    </row>
+    <row r="170" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>401</v>
       </c>
@@ -6237,9 +6819,12 @@
       <c r="J170" s="5">
         <v>1</v>
       </c>
-      <c r="K170" s="5"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K170" s="5">
+        <v>1</v>
+      </c>
+      <c r="L170" s="5"/>
+    </row>
+    <row r="171" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="5"/>
@@ -6251,11 +6836,14 @@
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
-      <c r="L171" t="s">
+      <c r="J171" s="5">
+        <v>1</v>
+      </c>
+      <c r="M171" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="5"/>
@@ -6267,8 +6855,11 @@
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J172" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="5"/>
@@ -6280,8 +6871,11 @@
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J173" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="5"/>
@@ -6293,8 +6887,11 @@
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J174" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="5"/>
@@ -6306,8 +6903,11 @@
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J175" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="5"/>
@@ -6319,8 +6919,11 @@
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J176" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="5"/>
@@ -6332,8 +6935,11 @@
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J177" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="5"/>
@@ -6345,8 +6951,11 @@
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J178" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="5"/>
@@ -6358,8 +6967,11 @@
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J179" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="5"/>
@@ -6371,8 +6983,11 @@
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J180" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="5"/>
@@ -6384,8 +6999,11 @@
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J181" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="5"/>
@@ -6397,8 +7015,11 @@
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J182" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="5"/>
@@ -6410,8 +7031,11 @@
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J183" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="5"/>
@@ -6423,8 +7047,11 @@
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J184" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="5"/>
@@ -6436,8 +7063,11 @@
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J185" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="5"/>
@@ -6449,8 +7079,11 @@
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J186" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="5"/>
@@ -6462,8 +7095,11 @@
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J187" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="5"/>
@@ -6475,8 +7111,14 @@
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J188" s="5">
+        <v>0</v>
+      </c>
+      <c r="M188" s="10" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="5"/>
@@ -6488,8 +7130,14 @@
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J189" s="5">
+        <v>0</v>
+      </c>
+      <c r="M189" s="10" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="5"/>
@@ -6501,8 +7149,14 @@
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J190" s="5">
+        <v>0</v>
+      </c>
+      <c r="M190" s="10" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>423</v>
       </c>
@@ -6522,11 +7176,14 @@
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
-      <c r="L191" t="s">
+      <c r="J191" s="5">
+        <v>1</v>
+      </c>
+      <c r="M191" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>426</v>
       </c>
@@ -6555,23 +7212,37 @@
       <c r="J192" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="9:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K192" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="9:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I193" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="J193">
+      <c r="J193" s="9"/>
+      <c r="K193">
+        <f>SUM(K2:K192)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="194" spans="9:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I194" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="J194">
         <f>SUM(J2:J192)</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="194" spans="9:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I194" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="195" spans="9:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I195" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="J194" s="11">
-        <f>J193/191</f>
-        <v>0.44502617801047123</v>
+      <c r="J195" s="9"/>
+      <c r="K195" s="11">
+        <f>K193/J194</f>
+        <v>0.62130177514792895</v>
       </c>
     </row>
   </sheetData>

--- a/doc-project/R2019b jarext worksheet.xlsx
+++ b/doc-project/R2019b jarext worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janke/local/repos/matlab-jump/doc-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9729EE34-FB20-F14B-92BD-F44F78D98FB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE5B727-97EA-8146-B28C-ECC36D9DCC21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29940" windowHeight="25360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="570">
   <si>
     <t>Title</t>
   </si>
@@ -1731,6 +1731,18 @@
   </si>
   <si>
     <t>Not needed. These XML things ship with JDK itself starting with 1.8. Though maybe we _should_ include them to induce Matlab-congruent failure states.</t>
+  </si>
+  <si>
+    <t>net.janklab.opp</t>
+  </si>
+  <si>
+    <t>glazedlists</t>
+  </si>
+  <si>
+    <t>1.7.0</t>
+  </si>
+  <si>
+    <t>HACK: I'm using 1.7.0 bc there never was a real 1.7.1 release.</t>
   </si>
 </sst>
 </file>
@@ -2064,10 +2076,10 @@
   <dimension ref="A1:M195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K28" sqref="K28:K47"/>
+      <selection pane="bottomRight" activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4134,11 +4146,23 @@
         <v>189</v>
       </c>
       <c r="F74" s="5"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
+      <c r="G74" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>568</v>
+      </c>
       <c r="J74" s="5">
         <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="M74" s="10" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7223,7 +7247,7 @@
       <c r="J193" s="9"/>
       <c r="K193">
         <f>SUM(K2:K192)</f>
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="194" spans="9:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7242,7 +7266,7 @@
       <c r="J195" s="9"/>
       <c r="K195" s="11">
         <f>K193/J194</f>
-        <v>0.62130177514792895</v>
+        <v>0.62721893491124259</v>
       </c>
     </row>
   </sheetData>

--- a/doc-project/R2019b jarext worksheet.xlsx
+++ b/doc-project/R2019b jarext worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janke/local/repos/matlab-jump/doc-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE5B727-97EA-8146-B28C-ECC36D9DCC21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB7F94D-D9FA-9C49-B71D-16DB1C1B7E10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29940" windowHeight="25360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34520" windowHeight="21480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R2019b" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="576">
   <si>
     <t>Title</t>
   </si>
@@ -1743,6 +1743,24 @@
   </si>
   <si>
     <t>HACK: I'm using 1.7.0 bc there never was a real 1.7.1 release.</t>
+  </si>
+  <si>
+    <t>LGPL/MPL</t>
+  </si>
+  <si>
+    <t>org.jogamp.gluegen</t>
+  </si>
+  <si>
+    <t>gluegen-rt</t>
+  </si>
+  <si>
+    <t>HACK: Matlab is using an RC; I just went with the GM version.</t>
+  </si>
+  <si>
+    <t>net.sourceforge.collections</t>
+  </si>
+  <si>
+    <t>collections-generic</t>
   </si>
 </sst>
 </file>
@@ -2076,10 +2094,10 @@
   <dimension ref="A1:M195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K75" sqref="K75"/>
+      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3550,9 +3568,15 @@
         <v>136</v>
       </c>
       <c r="F50" s="5"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="G50" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="I50" s="3">
+        <v>4.01</v>
+      </c>
       <c r="J50" s="5">
         <v>1</v>
       </c>
@@ -4138,7 +4162,9 @@
         <v>187</v>
       </c>
       <c r="B74" s="3"/>
-      <c r="C74" s="5"/>
+      <c r="C74" s="5" t="s">
+        <v>570</v>
+      </c>
       <c r="D74" s="6" t="s">
         <v>188</v>
       </c>
@@ -4180,11 +4206,23 @@
         <v>193</v>
       </c>
       <c r="F75" s="5"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
+      <c r="G75" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>523</v>
+      </c>
       <c r="J75" s="5">
         <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="M75" s="10" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7247,7 +7285,7 @@
       <c r="J193" s="9"/>
       <c r="K193">
         <f>SUM(K2:K192)</f>
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="194" spans="9:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7266,7 +7304,7 @@
       <c r="J195" s="9"/>
       <c r="K195" s="11">
         <f>K193/J194</f>
-        <v>0.62721893491124259</v>
+        <v>0.63313609467455623</v>
       </c>
     </row>
   </sheetData>

--- a/doc-project/R2019b jarext worksheet.xlsx
+++ b/doc-project/R2019b jarext worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janke/local/repos/matlab-jump/doc-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB7F94D-D9FA-9C49-B71D-16DB1C1B7E10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4C9BAF-866F-2D4E-821B-BE005FD8605C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="34520" windowHeight="21480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2094,10 +2094,10 @@
   <dimension ref="A1:M195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
+      <selection pane="bottomRight" activeCell="M119" sqref="M119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/doc-project/R2019b jarext worksheet.xlsx
+++ b/doc-project/R2019b jarext worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janke/local/repos/matlab-jump/doc-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4C9BAF-866F-2D4E-821B-BE005FD8605C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BCAD75-1B62-B04F-A74B-88BF4227F0D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="34520" windowHeight="21480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="578">
   <si>
     <t>Title</t>
   </si>
@@ -1761,6 +1761,12 @@
   </si>
   <si>
     <t>collections-generic</t>
+  </si>
+  <si>
+    <t>c385ac80a618abc53952b3e6b1967edd5bfcb0a6daa10a9ed8858d8a8317b909</t>
+  </si>
+  <si>
+    <t>Couldn't find this anywhere. Asked MathWorks.</t>
   </si>
 </sst>
 </file>
@@ -2094,10 +2100,10 @@
   <dimension ref="A1:M195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M119" sqref="M119"/>
+      <selection pane="bottomRight" activeCell="M173" sqref="M173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6914,11 +6920,16 @@
         <v>404</v>
       </c>
       <c r="F172" s="5"/>
-      <c r="G172" s="3"/>
+      <c r="G172" s="3" t="s">
+        <v>576</v>
+      </c>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="5">
         <v>1</v>
+      </c>
+      <c r="M172" s="10" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="173" spans="1:13" ht="15" x14ac:dyDescent="0.2">

--- a/doc-project/R2019b jarext worksheet.xlsx
+++ b/doc-project/R2019b jarext worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janke/local/repos/matlab-jump/doc-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BCAD75-1B62-B04F-A74B-88BF4227F0D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04509AFE-FAAB-1449-BAD5-85D0115B96ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="34520" windowHeight="21480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1685,9 +1685,6 @@
     <t>BSD</t>
   </si>
   <si>
-    <t>SHA doesn't match any 3.x or 4.x JARs from the ANTLR website. I've asked MathWorks what this is.</t>
-  </si>
-  <si>
     <t>Apache 2.0, BSD 2-Clause</t>
   </si>
   <si>
@@ -1767,6 +1764,9 @@
   </si>
   <si>
     <t>Couldn't find this anywhere. Asked MathWorks.</t>
+  </si>
+  <si>
+    <t>SHA doesn't match any 3.x or 4.x JARs from the ANTLR website. Determined version by running "java -jar antlr.jar", which prints the help screen including version info.</t>
   </si>
 </sst>
 </file>
@@ -2100,10 +2100,10 @@
   <dimension ref="A1:M195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M173" sqref="M173"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2150,7 +2150,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>429</v>
@@ -2191,7 +2191,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -2291,7 +2291,9 @@
       <c r="C8" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4">
+        <v>3.3</v>
+      </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
@@ -2304,8 +2306,11 @@
       <c r="J8" s="5">
         <v>1</v>
       </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
       <c r="M8" s="10" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -2451,7 +2456,7 @@
         <v>31</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D14" s="6">
         <v>1.1000000000000001</v>
@@ -2782,7 +2787,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D24" s="6">
         <v>1.4</v>
@@ -2849,7 +2854,7 @@
         <v>77</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D26" s="6">
         <v>1.6</v>
@@ -3575,10 +3580,10 @@
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>574</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>575</v>
       </c>
       <c r="I50" s="3">
         <v>4.01</v>
@@ -3958,7 +3963,7 @@
         <v>168</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>169</v>
@@ -4169,7 +4174,7 @@
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>188</v>
@@ -4179,22 +4184,22 @@
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="I74" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="J74" s="5">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="M74" s="10" t="s">
         <v>568</v>
-      </c>
-      <c r="J74" s="5">
-        <v>1</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-      <c r="M74" s="10" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -4213,10 +4218,10 @@
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>571</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>572</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>523</v>
@@ -4228,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="M75" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -4872,7 +4877,7 @@
         <v>255</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>35</v>
@@ -4925,7 +4930,7 @@
         <v>259</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D103" s="6">
         <v>1</v>
@@ -4959,7 +4964,7 @@
         <v>262</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>263</v>
@@ -4993,7 +4998,7 @@
         <v>262</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>263</v>
@@ -5072,7 +5077,7 @@
         <v>275</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>276</v>
@@ -5097,7 +5102,7 @@
         <v>275</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>276</v>
@@ -5120,7 +5125,7 @@
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D110" s="13"/>
       <c r="E110" s="5" t="s">
@@ -5140,7 +5145,7 @@
         <v>275</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D111" s="13" t="s">
         <v>276</v>
@@ -5165,7 +5170,7 @@
         <v>275</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>276</v>
@@ -5190,7 +5195,7 @@
         <v>275</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>276</v>
@@ -5215,7 +5220,7 @@
         <v>275</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>276</v>
@@ -5238,7 +5243,7 @@
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="5" t="s">
@@ -5261,7 +5266,7 @@
         <v>275</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>276</v>
@@ -5582,7 +5587,7 @@
         <v>297</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D126" s="6">
         <v>2.1</v>
@@ -5609,7 +5614,7 @@
         <v>297</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="5" t="s">
@@ -5634,7 +5639,7 @@
         <v>297</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="5" t="s">
@@ -5659,7 +5664,7 @@
         <v>297</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="5" t="s">
@@ -5684,7 +5689,7 @@
         <v>297</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="5" t="s">
@@ -5709,7 +5714,7 @@
         <v>297</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>308</v>
@@ -5736,7 +5741,7 @@
         <v>297</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D132" s="6">
         <v>3.3</v>
@@ -5759,7 +5764,7 @@
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="5" t="s">
@@ -5784,7 +5789,7 @@
         <v>297</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>308</v>
@@ -5811,7 +5816,7 @@
         <v>297</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>316</v>
@@ -5834,7 +5839,7 @@
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="5" t="s">
@@ -6291,7 +6296,7 @@
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="5" t="s">
@@ -6313,7 +6318,7 @@
         <v>361</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>362</v>
@@ -6347,7 +6352,7 @@
         <v>361</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>362</v>
@@ -6381,7 +6386,7 @@
         <v>361</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>362</v>
@@ -6415,7 +6420,7 @@
         <v>361</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>362</v>
@@ -6449,7 +6454,7 @@
         <v>361</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>362</v>
@@ -6483,7 +6488,7 @@
         <v>361</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>362</v>
@@ -6513,7 +6518,7 @@
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="5" t="s">
@@ -6535,7 +6540,7 @@
         <v>361</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>362</v>
@@ -6569,7 +6574,7 @@
         <v>361</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>362</v>
@@ -6798,7 +6803,7 @@
         <v>394</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>395</v>
@@ -6832,7 +6837,7 @@
         <v>398</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>399</v>
@@ -6866,7 +6871,7 @@
         <v>398</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>399</v>
@@ -6921,7 +6926,7 @@
       </c>
       <c r="F172" s="5"/>
       <c r="G172" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
@@ -6929,7 +6934,7 @@
         <v>1</v>
       </c>
       <c r="M172" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="173" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7188,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="M188" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="189" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7207,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="M189" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="190" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7226,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="M190" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="191" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -7296,12 +7301,12 @@
       <c r="J193" s="9"/>
       <c r="K193">
         <f>SUM(K2:K192)</f>
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="194" spans="9:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I194" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J194">
         <f>SUM(J2:J192)</f>
@@ -7315,7 +7320,7 @@
       <c r="J195" s="9"/>
       <c r="K195" s="11">
         <f>K193/J194</f>
-        <v>0.63313609467455623</v>
+        <v>0.63905325443786987</v>
       </c>
     </row>
   </sheetData>
